--- a/Varify_partner/Partner_Find.xlsx
+++ b/Varify_partner/Partner_Find.xlsx
@@ -11,315 +11,273 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
   <si>
     <t>old_partner_code</t>
   </si>
   <si>
-    <t xml:space="preserve">ANOTHER           </t>
+    <t>V01506</t>
+  </si>
+  <si>
+    <t>V01507</t>
+  </si>
+  <si>
+    <t>V01508</t>
+  </si>
+  <si>
+    <t>V01509</t>
+  </si>
+  <si>
+    <t>V01510</t>
+  </si>
+  <si>
+    <t>V01511</t>
+  </si>
+  <si>
+    <t>V01512</t>
+  </si>
+  <si>
+    <t>V01513</t>
+  </si>
+  <si>
+    <t>V01514</t>
+  </si>
+  <si>
+    <t>V01515</t>
+  </si>
+  <si>
+    <t>V01516</t>
+  </si>
+  <si>
+    <t>V01517</t>
+  </si>
+  <si>
+    <t>V01518</t>
+  </si>
+  <si>
+    <t>V01519</t>
+  </si>
+  <si>
+    <t>V01520</t>
+  </si>
+  <si>
+    <t>V01521</t>
+  </si>
+  <si>
+    <t>V01522</t>
+  </si>
+  <si>
+    <t>V01523</t>
+  </si>
+  <si>
+    <t>V01524</t>
+  </si>
+  <si>
+    <t>V01525</t>
+  </si>
+  <si>
+    <t>V01526</t>
+  </si>
+  <si>
+    <t>I001</t>
+  </si>
+  <si>
+    <t>VEN6600047</t>
+  </si>
+  <si>
+    <t>REL001</t>
+  </si>
+  <si>
+    <t>ANOTHER</t>
+  </si>
+  <si>
+    <t>WST001</t>
+  </si>
+  <si>
+    <t>GBB001</t>
+  </si>
+  <si>
+    <t>GBRE01</t>
+  </si>
+  <si>
+    <t>CHB001</t>
+  </si>
+  <si>
+    <t>YUY001</t>
+  </si>
+  <si>
+    <t>DOHUD01</t>
+  </si>
+  <si>
+    <t>HHO001</t>
+  </si>
+  <si>
+    <t>JCH001</t>
+  </si>
+  <si>
+    <t>FIP001</t>
+  </si>
+  <si>
+    <t>SMC008</t>
+  </si>
+  <si>
+    <t>SRT001</t>
+  </si>
+  <si>
+    <t>SHP001</t>
+  </si>
+  <si>
+    <t>SBD001</t>
+  </si>
+  <si>
+    <t>ITH002</t>
+  </si>
+  <si>
+    <t>SCG002</t>
+  </si>
+  <si>
+    <t>ISC002</t>
+  </si>
+  <si>
+    <t>MRH001</t>
+  </si>
+  <si>
+    <t>CTH004</t>
+  </si>
+  <si>
+    <t>BTV017</t>
+  </si>
+  <si>
+    <t>YOH002</t>
+  </si>
+  <si>
+    <t>VEN6500042</t>
+  </si>
+  <si>
+    <t>GHM001</t>
   </si>
   <si>
     <t>OTHER</t>
   </si>
   <si>
-    <t>TNP004</t>
-  </si>
-  <si>
-    <t>VEN6000025</t>
-  </si>
-  <si>
-    <t>TNN01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VEN5900050   </t>
-  </si>
-  <si>
-    <t>CRC006</t>
-  </si>
-  <si>
-    <t>AXM001</t>
-  </si>
-  <si>
-    <t>VEN6700022</t>
-  </si>
-  <si>
-    <t>NEE001</t>
-  </si>
-  <si>
-    <t>BIP001</t>
-  </si>
-  <si>
-    <t>KTM001</t>
-  </si>
-  <si>
-    <t>SCG011</t>
-  </si>
-  <si>
-    <t>GCH001</t>
-  </si>
-  <si>
-    <t>ADG001</t>
-  </si>
-  <si>
-    <t>GPM002</t>
-  </si>
-  <si>
-    <t>VEN6100163</t>
-  </si>
-  <si>
-    <t>KAF001</t>
-  </si>
-  <si>
-    <t>QLN001</t>
-  </si>
-  <si>
-    <t>KMT001</t>
-  </si>
-  <si>
-    <t>CPS001</t>
-  </si>
-  <si>
-    <t>APC002</t>
-  </si>
-  <si>
-    <t>I001</t>
-  </si>
-  <si>
-    <t>PSM001</t>
-  </si>
-  <si>
-    <t>VEN6300078</t>
-  </si>
-  <si>
-    <t>VEN6500034</t>
-  </si>
-  <si>
-    <t>M013</t>
-  </si>
-  <si>
-    <t>FJT001</t>
-  </si>
-  <si>
-    <t>YUK001</t>
-  </si>
-  <si>
-    <t>HMP001</t>
-  </si>
-  <si>
-    <t>PAN002</t>
-  </si>
-  <si>
-    <t>SRR001</t>
-  </si>
-  <si>
-    <t>VEN6400039</t>
-  </si>
-  <si>
-    <t>HAF002</t>
-  </si>
-  <si>
-    <t>T038</t>
-  </si>
-  <si>
-    <t>POT001</t>
-  </si>
-  <si>
-    <t>TPF002</t>
-  </si>
-  <si>
-    <t>LNM001</t>
-  </si>
-  <si>
-    <t>VEN6400057</t>
-  </si>
-  <si>
-    <t>TAK001</t>
-  </si>
-  <si>
-    <t>VEN6600042</t>
-  </si>
-  <si>
-    <t>B007</t>
-  </si>
-  <si>
-    <t>JSM001</t>
-  </si>
-  <si>
-    <t>ASV001</t>
-  </si>
-  <si>
-    <t>VEN6000024</t>
-  </si>
-  <si>
-    <t>CKB001</t>
-  </si>
-  <si>
-    <t>VEN6400011</t>
-  </si>
-  <si>
-    <t>PFM001</t>
-  </si>
-  <si>
-    <t>TGN001</t>
-  </si>
-  <si>
-    <t>S111</t>
-  </si>
-  <si>
-    <t>VSA001</t>
+    <t>BTV004</t>
+  </si>
+  <si>
+    <t>YLY001</t>
+  </si>
+  <si>
+    <t>BTV013</t>
+  </si>
+  <si>
+    <t>BTV016</t>
+  </si>
+  <si>
+    <t>CBK000</t>
+  </si>
+  <si>
+    <t>PPR002</t>
+  </si>
+  <si>
+    <t>TSP004</t>
+  </si>
+  <si>
+    <t>BLS001</t>
+  </si>
+  <si>
+    <t>SVM001</t>
+  </si>
+  <si>
+    <t>SCG004</t>
+  </si>
+  <si>
+    <t>AWN001</t>
+  </si>
+  <si>
+    <t>STR001</t>
   </si>
   <si>
     <t>STM01</t>
   </si>
   <si>
-    <t>VEN6400015</t>
-  </si>
-  <si>
-    <t>VEN6000082</t>
-  </si>
-  <si>
-    <t>VEN6100109</t>
-  </si>
-  <si>
-    <t>VEN6400050</t>
-  </si>
-  <si>
-    <t>VEN5900004</t>
-  </si>
-  <si>
-    <t>VEN6700020</t>
-  </si>
-  <si>
-    <t>M048</t>
-  </si>
-  <si>
-    <t>TVP002</t>
-  </si>
-  <si>
-    <t>AFD001</t>
-  </si>
-  <si>
-    <t>ALI001</t>
-  </si>
-  <si>
-    <t>VEN6000071</t>
-  </si>
-  <si>
-    <t>OFW001</t>
-  </si>
-  <si>
-    <t>OFM001</t>
-  </si>
-  <si>
-    <t>THC002</t>
-  </si>
-  <si>
-    <t>VPK001</t>
-  </si>
-  <si>
-    <t>SCS001</t>
-  </si>
-  <si>
-    <t>SNV001</t>
-  </si>
-  <si>
-    <t>TCI001</t>
-  </si>
-  <si>
-    <t>TIF001</t>
-  </si>
-  <si>
-    <t>CKP001</t>
-  </si>
-  <si>
-    <t>DSW001</t>
-  </si>
-  <si>
-    <t>PPE001</t>
-  </si>
-  <si>
-    <t>PRN01</t>
-  </si>
-  <si>
-    <t>SAM002</t>
-  </si>
-  <si>
-    <t>KBI001</t>
-  </si>
-  <si>
-    <t>STS001</t>
-  </si>
-  <si>
-    <t>NCS001</t>
-  </si>
-  <si>
-    <t>BNT01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BFT001  </t>
-  </si>
-  <si>
-    <t>FFL001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SKL001   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PKN001     </t>
-  </si>
-  <si>
-    <t>MPC001</t>
-  </si>
-  <si>
-    <t>PAN001</t>
-  </si>
-  <si>
-    <t>REL001</t>
-  </si>
-  <si>
-    <t>SJR001</t>
-  </si>
-  <si>
-    <t>NEW001</t>
-  </si>
-  <si>
-    <t>WBS001</t>
-  </si>
-  <si>
-    <t>VEN6300042</t>
-  </si>
-  <si>
-    <t>WIN001</t>
-  </si>
-  <si>
-    <t>YMP001</t>
-  </si>
-  <si>
-    <t>TNT001</t>
-  </si>
-  <si>
-    <t>TRO001</t>
-  </si>
-  <si>
-    <t>TOY003</t>
-  </si>
-  <si>
-    <t>APS001</t>
-  </si>
-  <si>
-    <t>K003</t>
-  </si>
-  <si>
-    <t>DOH001</t>
-  </si>
-  <si>
-    <t>VEN6100114</t>
-  </si>
-  <si>
-    <t>JIB001</t>
-  </si>
-  <si>
-    <t>VEN6000048</t>
+    <t>BTV009</t>
+  </si>
+  <si>
+    <t>SMT01</t>
+  </si>
+  <si>
+    <t>NUT001</t>
+  </si>
+  <si>
+    <t>HOM001</t>
+  </si>
+  <si>
+    <t>CSC002</t>
+  </si>
+  <si>
+    <t>BOO 035</t>
+  </si>
+  <si>
+    <t>BOON009</t>
+  </si>
+  <si>
+    <t>YJR001</t>
+  </si>
+  <si>
+    <t>BOO001</t>
+  </si>
+  <si>
+    <t>BOO0002</t>
+  </si>
+  <si>
+    <t>BOO003</t>
+  </si>
+  <si>
+    <t>BOO005</t>
+  </si>
+  <si>
+    <t>BOO006</t>
+  </si>
+  <si>
+    <t>BOO007</t>
+  </si>
+  <si>
+    <t>BOO 014</t>
+  </si>
+  <si>
+    <t>BOO 020</t>
+  </si>
+  <si>
+    <t>BOO010</t>
+  </si>
+  <si>
+    <t>SBDH001</t>
+  </si>
+  <si>
+    <t>BOO013</t>
+  </si>
+  <si>
+    <t>BOO 016</t>
+  </si>
+  <si>
+    <t>BOO 015</t>
+  </si>
+  <si>
+    <t>YUL002</t>
+  </si>
+  <si>
+    <t>HOH002</t>
+  </si>
+  <si>
+    <t>SMC003</t>
+  </si>
+  <si>
+    <t>BOO 029</t>
+  </si>
+  <si>
+    <t>MBH001</t>
+  </si>
+  <si>
+    <t>SVYSY001</t>
   </si>
 </sst>
 </file>
@@ -1655,7 +1613,7 @@
     </row>
     <row r="3" ht="20.05" customHeight="1">
       <c r="A3" t="s" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="10"/>
@@ -1666,7 +1624,7 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" t="s" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
@@ -1677,7 +1635,7 @@
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" t="s" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10"/>
@@ -1688,7 +1646,7 @@
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" t="s" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="10"/>
@@ -1699,7 +1657,7 @@
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" t="s" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="10"/>
@@ -1710,7 +1668,7 @@
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" t="s" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="10"/>
@@ -1721,7 +1679,7 @@
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" t="s" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="10"/>
@@ -1732,7 +1690,7 @@
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" t="s" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="10"/>
@@ -1743,7 +1701,7 @@
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" t="s" s="8">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="10"/>
@@ -1754,7 +1712,7 @@
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" t="s" s="8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="10"/>
@@ -1765,7 +1723,7 @@
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" t="s" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="10"/>
@@ -1776,7 +1734,7 @@
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" t="s" s="8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="10"/>
@@ -1787,7 +1745,7 @@
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" t="s" s="8">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
@@ -1798,7 +1756,7 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" t="s" s="8">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
@@ -1809,7 +1767,7 @@
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" t="s" s="8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
@@ -1820,7 +1778,7 @@
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" t="s" s="8">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
@@ -1831,7 +1789,7 @@
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" t="s" s="8">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="10"/>
@@ -1842,7 +1800,7 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" t="s" s="8">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
@@ -1853,7 +1811,7 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" t="s" s="8">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
@@ -1864,7 +1822,7 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" t="s" s="8">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
@@ -1875,7 +1833,7 @@
     </row>
     <row r="23" ht="20.05" customHeight="1">
       <c r="A23" t="s" s="8">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
@@ -1886,7 +1844,7 @@
     </row>
     <row r="24" ht="20.05" customHeight="1">
       <c r="A24" t="s" s="8">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
@@ -1897,7 +1855,7 @@
     </row>
     <row r="25" ht="20.05" customHeight="1">
       <c r="A25" t="s" s="8">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
@@ -1908,7 +1866,7 @@
     </row>
     <row r="26" ht="20.05" customHeight="1">
       <c r="A26" t="s" s="8">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="10"/>
@@ -1919,7 +1877,7 @@
     </row>
     <row r="27" ht="20.05" customHeight="1">
       <c r="A27" t="s" s="8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="10"/>
@@ -1930,7 +1888,7 @@
     </row>
     <row r="28" ht="20.05" customHeight="1">
       <c r="A28" t="s" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -1941,7 +1899,7 @@
     </row>
     <row r="29" ht="20.05" customHeight="1">
       <c r="A29" t="s" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
@@ -1952,7 +1910,7 @@
     </row>
     <row r="30" ht="20.05" customHeight="1">
       <c r="A30" t="s" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="10"/>
@@ -1963,7 +1921,7 @@
     </row>
     <row r="31" ht="20.05" customHeight="1">
       <c r="A31" t="s" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="10"/>
@@ -1974,7 +1932,7 @@
     </row>
     <row r="32" ht="20.05" customHeight="1">
       <c r="A32" t="s" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
@@ -1985,7 +1943,7 @@
     </row>
     <row r="33" ht="20.05" customHeight="1">
       <c r="A33" t="s" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
@@ -1996,7 +1954,7 @@
     </row>
     <row r="34" ht="20.05" customHeight="1">
       <c r="A34" t="s" s="8">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="10"/>
@@ -2007,7 +1965,7 @@
     </row>
     <row r="35" ht="20.05" customHeight="1">
       <c r="A35" t="s" s="8">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="10"/>
@@ -2018,7 +1976,7 @@
     </row>
     <row r="36" ht="20.05" customHeight="1">
       <c r="A36" t="s" s="8">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="10"/>
@@ -2029,7 +1987,7 @@
     </row>
     <row r="37" ht="20.05" customHeight="1">
       <c r="A37" t="s" s="8">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="10"/>
@@ -2040,7 +1998,7 @@
     </row>
     <row r="38" ht="20.05" customHeight="1">
       <c r="A38" t="s" s="8">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="10"/>
@@ -2051,7 +2009,7 @@
     </row>
     <row r="39" ht="20.05" customHeight="1">
       <c r="A39" t="s" s="8">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="10"/>
@@ -2062,7 +2020,7 @@
     </row>
     <row r="40" ht="20.05" customHeight="1">
       <c r="A40" t="s" s="8">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="10"/>
@@ -2073,7 +2031,7 @@
     </row>
     <row r="41" ht="20.05" customHeight="1">
       <c r="A41" t="s" s="8">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
@@ -2084,7 +2042,7 @@
     </row>
     <row r="42" ht="20.05" customHeight="1">
       <c r="A42" t="s" s="8">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
@@ -2095,7 +2053,7 @@
     </row>
     <row r="43" ht="20.05" customHeight="1">
       <c r="A43" t="s" s="8">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
@@ -2106,7 +2064,7 @@
     </row>
     <row r="44" ht="20.05" customHeight="1">
       <c r="A44" t="s" s="8">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
@@ -2117,7 +2075,7 @@
     </row>
     <row r="45" ht="20.05" customHeight="1">
       <c r="A45" t="s" s="8">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
@@ -2128,7 +2086,7 @@
     </row>
     <row r="46" ht="20.05" customHeight="1">
       <c r="A46" t="s" s="8">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="10"/>
@@ -2139,7 +2097,7 @@
     </row>
     <row r="47" ht="20.05" customHeight="1">
       <c r="A47" t="s" s="8">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="10"/>
@@ -2150,7 +2108,7 @@
     </row>
     <row r="48" ht="20.05" customHeight="1">
       <c r="A48" t="s" s="8">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
@@ -2161,7 +2119,7 @@
     </row>
     <row r="49" ht="20.05" customHeight="1">
       <c r="A49" t="s" s="8">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="10"/>
@@ -2172,7 +2130,7 @@
     </row>
     <row r="50" ht="20.05" customHeight="1">
       <c r="A50" t="s" s="8">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
@@ -2183,7 +2141,7 @@
     </row>
     <row r="51" ht="20.05" customHeight="1">
       <c r="A51" t="s" s="8">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
@@ -2194,7 +2152,7 @@
     </row>
     <row r="52" ht="20.05" customHeight="1">
       <c r="A52" t="s" s="8">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
@@ -2205,7 +2163,7 @@
     </row>
     <row r="53" ht="20.05" customHeight="1">
       <c r="A53" t="s" s="8">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="10"/>
@@ -2216,7 +2174,7 @@
     </row>
     <row r="54" ht="20.05" customHeight="1">
       <c r="A54" t="s" s="8">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
@@ -2227,7 +2185,7 @@
     </row>
     <row r="55" ht="20.05" customHeight="1">
       <c r="A55" t="s" s="8">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
@@ -2238,7 +2196,7 @@
     </row>
     <row r="56" ht="20.05" customHeight="1">
       <c r="A56" t="s" s="8">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
@@ -2249,7 +2207,7 @@
     </row>
     <row r="57" ht="20.05" customHeight="1">
       <c r="A57" t="s" s="8">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="10"/>
@@ -2260,7 +2218,7 @@
     </row>
     <row r="58" ht="20.05" customHeight="1">
       <c r="A58" t="s" s="8">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="10"/>
@@ -2271,7 +2229,7 @@
     </row>
     <row r="59" ht="20.05" customHeight="1">
       <c r="A59" t="s" s="8">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="10"/>
@@ -2282,7 +2240,7 @@
     </row>
     <row r="60" ht="20.05" customHeight="1">
       <c r="A60" t="s" s="8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
@@ -2293,7 +2251,7 @@
     </row>
     <row r="61" ht="20.05" customHeight="1">
       <c r="A61" t="s" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="10"/>
@@ -2304,7 +2262,7 @@
     </row>
     <row r="62" ht="20.05" customHeight="1">
       <c r="A62" t="s" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="10"/>
@@ -2315,7 +2273,7 @@
     </row>
     <row r="63" ht="20.05" customHeight="1">
       <c r="A63" t="s" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
@@ -2326,7 +2284,7 @@
     </row>
     <row r="64" ht="20.05" customHeight="1">
       <c r="A64" t="s" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
@@ -2337,7 +2295,7 @@
     </row>
     <row r="65" ht="20.05" customHeight="1">
       <c r="A65" t="s" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
@@ -2348,7 +2306,7 @@
     </row>
     <row r="66" ht="20.05" customHeight="1">
       <c r="A66" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="10"/>
@@ -2359,7 +2317,7 @@
     </row>
     <row r="67" ht="20.05" customHeight="1">
       <c r="A67" t="s" s="8">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="10"/>
@@ -2370,7 +2328,7 @@
     </row>
     <row r="68" ht="20.05" customHeight="1">
       <c r="A68" t="s" s="8">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="10"/>
@@ -2381,7 +2339,7 @@
     </row>
     <row r="69" ht="20.05" customHeight="1">
       <c r="A69" t="s" s="8">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="10"/>
@@ -2392,7 +2350,7 @@
     </row>
     <row r="70" ht="20.05" customHeight="1">
       <c r="A70" t="s" s="8">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="10"/>
@@ -2403,7 +2361,7 @@
     </row>
     <row r="71" ht="20.05" customHeight="1">
       <c r="A71" t="s" s="8">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="10"/>
@@ -2414,7 +2372,7 @@
     </row>
     <row r="72" ht="20.05" customHeight="1">
       <c r="A72" t="s" s="8">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="10"/>
@@ -2425,7 +2383,7 @@
     </row>
     <row r="73" ht="20.05" customHeight="1">
       <c r="A73" t="s" s="8">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="10"/>
@@ -2436,7 +2394,7 @@
     </row>
     <row r="74" ht="20.05" customHeight="1">
       <c r="A74" t="s" s="8">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="10"/>
@@ -2447,7 +2405,7 @@
     </row>
     <row r="75" ht="20.05" customHeight="1">
       <c r="A75" t="s" s="8">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
@@ -2458,7 +2416,7 @@
     </row>
     <row r="76" ht="20.05" customHeight="1">
       <c r="A76" t="s" s="8">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="10"/>
@@ -2469,7 +2427,7 @@
     </row>
     <row r="77" ht="20.05" customHeight="1">
       <c r="A77" t="s" s="8">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="10"/>
@@ -2480,7 +2438,7 @@
     </row>
     <row r="78" ht="20.05" customHeight="1">
       <c r="A78" t="s" s="8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
@@ -2491,7 +2449,7 @@
     </row>
     <row r="79" ht="20.05" customHeight="1">
       <c r="A79" t="s" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="10"/>
@@ -2502,7 +2460,7 @@
     </row>
     <row r="80" ht="20.05" customHeight="1">
       <c r="A80" t="s" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="10"/>
@@ -2513,7 +2471,7 @@
     </row>
     <row r="81" ht="20.05" customHeight="1">
       <c r="A81" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
@@ -2524,7 +2482,7 @@
     </row>
     <row r="82" ht="20.05" customHeight="1">
       <c r="A82" t="s" s="8">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
@@ -2535,7 +2493,7 @@
     </row>
     <row r="83" ht="20.05" customHeight="1">
       <c r="A83" t="s" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="10"/>
@@ -2546,7 +2504,7 @@
     </row>
     <row r="84" ht="20.05" customHeight="1">
       <c r="A84" t="s" s="8">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="10"/>
@@ -2557,7 +2515,7 @@
     </row>
     <row r="85" ht="20.05" customHeight="1">
       <c r="A85" t="s" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="10"/>
@@ -2568,7 +2526,7 @@
     </row>
     <row r="86" ht="20.05" customHeight="1">
       <c r="A86" t="s" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="10"/>
@@ -2579,7 +2537,7 @@
     </row>
     <row r="87" ht="20.05" customHeight="1">
       <c r="A87" t="s" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="10"/>
@@ -2590,7 +2548,7 @@
     </row>
     <row r="88" ht="20.05" customHeight="1">
       <c r="A88" t="s" s="8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="10"/>
@@ -2601,7 +2559,7 @@
     </row>
     <row r="89" ht="20.05" customHeight="1">
       <c r="A89" t="s" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="10"/>
@@ -2612,7 +2570,7 @@
     </row>
     <row r="90" ht="20.05" customHeight="1">
       <c r="A90" t="s" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="10"/>
@@ -2623,7 +2581,7 @@
     </row>
     <row r="91" ht="20.05" customHeight="1">
       <c r="A91" t="s" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="10"/>
@@ -2634,7 +2592,7 @@
     </row>
     <row r="92" ht="20.05" customHeight="1">
       <c r="A92" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="10"/>
@@ -2645,7 +2603,7 @@
     </row>
     <row r="93" ht="20.05" customHeight="1">
       <c r="A93" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="10"/>
@@ -2656,7 +2614,7 @@
     </row>
     <row r="94" ht="20.05" customHeight="1">
       <c r="A94" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="10"/>
@@ -2667,7 +2625,7 @@
     </row>
     <row r="95" ht="20.05" customHeight="1">
       <c r="A95" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="10"/>
@@ -2678,7 +2636,7 @@
     </row>
     <row r="96" ht="20.05" customHeight="1">
       <c r="A96" t="s" s="8">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="10"/>
@@ -2689,7 +2647,7 @@
     </row>
     <row r="97" ht="20.05" customHeight="1">
       <c r="A97" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="10"/>
@@ -2700,7 +2658,7 @@
     </row>
     <row r="98" ht="20.05" customHeight="1">
       <c r="A98" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="10"/>
@@ -2711,7 +2669,7 @@
     </row>
     <row r="99" ht="20.05" customHeight="1">
       <c r="A99" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="10"/>
@@ -2722,7 +2680,7 @@
     </row>
     <row r="100" ht="20.05" customHeight="1">
       <c r="A100" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="10"/>
@@ -2733,7 +2691,7 @@
     </row>
     <row r="101" ht="20.05" customHeight="1">
       <c r="A101" t="s" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="10"/>
@@ -2744,7 +2702,7 @@
     </row>
     <row r="102" ht="20.05" customHeight="1">
       <c r="A102" t="s" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="10"/>
@@ -2755,7 +2713,7 @@
     </row>
     <row r="103" ht="20.05" customHeight="1">
       <c r="A103" t="s" s="8">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="10"/>
@@ -2766,7 +2724,7 @@
     </row>
     <row r="104" ht="20.05" customHeight="1">
       <c r="A104" t="s" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="10"/>
@@ -2777,7 +2735,7 @@
     </row>
     <row r="105" ht="20.05" customHeight="1">
       <c r="A105" t="s" s="8">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="10"/>
@@ -2788,7 +2746,7 @@
     </row>
     <row r="106" ht="20.05" customHeight="1">
       <c r="A106" t="s" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="10"/>
@@ -2799,7 +2757,7 @@
     </row>
     <row r="107" ht="20.05" customHeight="1">
       <c r="A107" t="s" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="10"/>
@@ -2810,7 +2768,7 @@
     </row>
     <row r="108" ht="20.05" customHeight="1">
       <c r="A108" t="s" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="10"/>
@@ -2821,7 +2779,7 @@
     </row>
     <row r="109" ht="20.05" customHeight="1">
       <c r="A109" t="s" s="8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="10"/>
@@ -2832,7 +2790,7 @@
     </row>
     <row r="110" ht="20.05" customHeight="1">
       <c r="A110" t="s" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="10"/>
@@ -2843,7 +2801,7 @@
     </row>
     <row r="111" ht="20.05" customHeight="1">
       <c r="A111" t="s" s="8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="10"/>
@@ -2854,7 +2812,7 @@
     </row>
     <row r="112" ht="20.05" customHeight="1">
       <c r="A112" t="s" s="8">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="10"/>
@@ -2865,7 +2823,7 @@
     </row>
     <row r="113" ht="20.05" customHeight="1">
       <c r="A113" t="s" s="8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="10"/>
@@ -2876,7 +2834,7 @@
     </row>
     <row r="114" ht="20.05" customHeight="1">
       <c r="A114" t="s" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="10"/>
@@ -2887,7 +2845,7 @@
     </row>
     <row r="115" ht="20.05" customHeight="1">
       <c r="A115" t="s" s="8">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="10"/>
@@ -2898,7 +2856,7 @@
     </row>
     <row r="116" ht="20.05" customHeight="1">
       <c r="A116" t="s" s="8">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="10"/>
@@ -2909,7 +2867,7 @@
     </row>
     <row r="117" ht="20.05" customHeight="1">
       <c r="A117" t="s" s="8">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="10"/>
@@ -2920,7 +2878,7 @@
     </row>
     <row r="118" ht="20.05" customHeight="1">
       <c r="A118" t="s" s="8">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="10"/>
@@ -2931,7 +2889,7 @@
     </row>
     <row r="119" ht="20.05" customHeight="1">
       <c r="A119" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="10"/>
@@ -2942,7 +2900,7 @@
     </row>
     <row r="120" ht="20.05" customHeight="1">
       <c r="A120" t="s" s="8">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="10"/>
@@ -2953,7 +2911,7 @@
     </row>
     <row r="121" ht="20.05" customHeight="1">
       <c r="A121" t="s" s="8">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="10"/>
@@ -2964,7 +2922,7 @@
     </row>
     <row r="122" ht="20.05" customHeight="1">
       <c r="A122" t="s" s="8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="10"/>
@@ -2975,7 +2933,7 @@
     </row>
     <row r="123" ht="20.05" customHeight="1">
       <c r="A123" t="s" s="8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="10"/>
@@ -2986,7 +2944,7 @@
     </row>
     <row r="124" ht="20.05" customHeight="1">
       <c r="A124" t="s" s="8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="10"/>
@@ -2997,7 +2955,7 @@
     </row>
     <row r="125" ht="20.05" customHeight="1">
       <c r="A125" t="s" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="10"/>
@@ -3008,7 +2966,7 @@
     </row>
     <row r="126" ht="20.05" customHeight="1">
       <c r="A126" t="s" s="8">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="10"/>
@@ -3019,7 +2977,7 @@
     </row>
     <row r="127" ht="20.05" customHeight="1">
       <c r="A127" t="s" s="8">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="10"/>
@@ -3030,7 +2988,7 @@
     </row>
     <row r="128" ht="20.05" customHeight="1">
       <c r="A128" t="s" s="8">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="10"/>
@@ -3041,7 +2999,7 @@
     </row>
     <row r="129" ht="20.05" customHeight="1">
       <c r="A129" t="s" s="8">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="10"/>
@@ -3052,7 +3010,7 @@
     </row>
     <row r="130" ht="20.05" customHeight="1">
       <c r="A130" t="s" s="8">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="10"/>
@@ -3063,7 +3021,7 @@
     </row>
     <row r="131" ht="20.05" customHeight="1">
       <c r="A131" t="s" s="8">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="10"/>
@@ -3074,7 +3032,7 @@
     </row>
     <row r="132" ht="20.05" customHeight="1">
       <c r="A132" t="s" s="8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="10"/>
@@ -3085,7 +3043,7 @@
     </row>
     <row r="133" ht="20.05" customHeight="1">
       <c r="A133" t="s" s="8">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B133" s="9"/>
       <c r="C133" s="10"/>
@@ -3096,7 +3054,7 @@
     </row>
     <row r="134" ht="20.05" customHeight="1">
       <c r="A134" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B134" s="9"/>
       <c r="C134" s="10"/>
@@ -3107,7 +3065,7 @@
     </row>
     <row r="135" ht="20.05" customHeight="1">
       <c r="A135" t="s" s="8">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B135" s="9"/>
       <c r="C135" s="10"/>
@@ -3118,7 +3076,7 @@
     </row>
     <row r="136" ht="20.05" customHeight="1">
       <c r="A136" t="s" s="8">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B136" s="9"/>
       <c r="C136" s="10"/>
@@ -3129,7 +3087,7 @@
     </row>
     <row r="137" ht="20.05" customHeight="1">
       <c r="A137" t="s" s="8">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B137" s="9"/>
       <c r="C137" s="10"/>
@@ -3140,7 +3098,7 @@
     </row>
     <row r="138" ht="20.05" customHeight="1">
       <c r="A138" t="s" s="8">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="10"/>
@@ -3151,7 +3109,7 @@
     </row>
     <row r="139" ht="20.05" customHeight="1">
       <c r="A139" t="s" s="8">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="10"/>
@@ -3162,7 +3120,7 @@
     </row>
     <row r="140" ht="20.05" customHeight="1">
       <c r="A140" t="s" s="8">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="10"/>
@@ -3173,7 +3131,7 @@
     </row>
     <row r="141" ht="20.05" customHeight="1">
       <c r="A141" t="s" s="8">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B141" s="9"/>
       <c r="C141" s="10"/>
@@ -3184,7 +3142,7 @@
     </row>
     <row r="142" ht="20.05" customHeight="1">
       <c r="A142" t="s" s="8">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="10"/>
@@ -3195,7 +3153,7 @@
     </row>
     <row r="143" ht="20.05" customHeight="1">
       <c r="A143" t="s" s="8">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="B143" s="9"/>
       <c r="C143" s="10"/>
@@ -3206,7 +3164,7 @@
     </row>
     <row r="144" ht="20.05" customHeight="1">
       <c r="A144" t="s" s="8">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="10"/>
@@ -3217,7 +3175,7 @@
     </row>
     <row r="145" ht="20.05" customHeight="1">
       <c r="A145" t="s" s="8">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B145" s="9"/>
       <c r="C145" s="10"/>
@@ -3228,7 +3186,7 @@
     </row>
     <row r="146" ht="20.05" customHeight="1">
       <c r="A146" t="s" s="8">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B146" s="9"/>
       <c r="C146" s="10"/>
@@ -3239,7 +3197,7 @@
     </row>
     <row r="147" ht="20.05" customHeight="1">
       <c r="A147" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B147" s="9"/>
       <c r="C147" s="10"/>
@@ -3250,7 +3208,7 @@
     </row>
     <row r="148" ht="20.05" customHeight="1">
       <c r="A148" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B148" s="9"/>
       <c r="C148" s="10"/>
@@ -3261,7 +3219,7 @@
     </row>
     <row r="149" ht="20.05" customHeight="1">
       <c r="A149" t="s" s="8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="10"/>
@@ -3272,7 +3230,7 @@
     </row>
     <row r="150" ht="20.05" customHeight="1">
       <c r="A150" t="s" s="8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B150" s="9"/>
       <c r="C150" s="10"/>
@@ -3283,7 +3241,7 @@
     </row>
     <row r="151" ht="20.05" customHeight="1">
       <c r="A151" t="s" s="8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="10"/>
@@ -3294,7 +3252,7 @@
     </row>
     <row r="152" ht="20.05" customHeight="1">
       <c r="A152" t="s" s="8">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="B152" s="9"/>
       <c r="C152" s="10"/>
@@ -3305,7 +3263,7 @@
     </row>
     <row r="153" ht="20.05" customHeight="1">
       <c r="A153" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="10"/>
@@ -3316,7 +3274,7 @@
     </row>
     <row r="154" ht="20.05" customHeight="1">
       <c r="A154" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B154" s="9"/>
       <c r="C154" s="10"/>
@@ -3327,7 +3285,7 @@
     </row>
     <row r="155" ht="20.05" customHeight="1">
       <c r="A155" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B155" s="9"/>
       <c r="C155" s="10"/>
@@ -3338,7 +3296,7 @@
     </row>
     <row r="156" ht="20.05" customHeight="1">
       <c r="A156" t="s" s="8">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B156" s="9"/>
       <c r="C156" s="10"/>
@@ -3349,7 +3307,7 @@
     </row>
     <row r="157" ht="20.05" customHeight="1">
       <c r="A157" t="s" s="8">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B157" s="9"/>
       <c r="C157" s="10"/>
@@ -3360,7 +3318,7 @@
     </row>
     <row r="158" ht="20.05" customHeight="1">
       <c r="A158" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B158" s="9"/>
       <c r="C158" s="10"/>
@@ -3371,7 +3329,7 @@
     </row>
     <row r="159" ht="20.05" customHeight="1">
       <c r="A159" t="s" s="8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B159" s="9"/>
       <c r="C159" s="10"/>
@@ -3382,7 +3340,7 @@
     </row>
     <row r="160" ht="20.05" customHeight="1">
       <c r="A160" t="s" s="8">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B160" s="9"/>
       <c r="C160" s="10"/>
@@ -3393,7 +3351,7 @@
     </row>
     <row r="161" ht="20.05" customHeight="1">
       <c r="A161" t="s" s="8">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B161" s="9"/>
       <c r="C161" s="10"/>
@@ -3404,7 +3362,7 @@
     </row>
     <row r="162" ht="20.05" customHeight="1">
       <c r="A162" t="s" s="8">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B162" s="9"/>
       <c r="C162" s="10"/>
@@ -3415,7 +3373,7 @@
     </row>
     <row r="163" ht="20.05" customHeight="1">
       <c r="A163" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B163" s="9"/>
       <c r="C163" s="10"/>
@@ -3426,7 +3384,7 @@
     </row>
     <row r="164" ht="20.05" customHeight="1">
       <c r="A164" t="s" s="8">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="B164" s="9"/>
       <c r="C164" s="10"/>
@@ -3437,7 +3395,7 @@
     </row>
     <row r="165" ht="20.05" customHeight="1">
       <c r="A165" t="s" s="8">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="B165" s="9"/>
       <c r="C165" s="10"/>
@@ -3448,7 +3406,7 @@
     </row>
     <row r="166" ht="20.05" customHeight="1">
       <c r="A166" t="s" s="8">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B166" s="9"/>
       <c r="C166" s="10"/>
@@ -3459,7 +3417,7 @@
     </row>
     <row r="167" ht="20.05" customHeight="1">
       <c r="A167" t="s" s="8">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B167" s="9"/>
       <c r="C167" s="10"/>
@@ -3470,7 +3428,7 @@
     </row>
     <row r="168" ht="20.05" customHeight="1">
       <c r="A168" t="s" s="8">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="B168" s="9"/>
       <c r="C168" s="10"/>
@@ -3481,7 +3439,7 @@
     </row>
     <row r="169" ht="20.05" customHeight="1">
       <c r="A169" t="s" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B169" s="9"/>
       <c r="C169" s="10"/>
@@ -3492,7 +3450,7 @@
     </row>
     <row r="170" ht="20.05" customHeight="1">
       <c r="A170" t="s" s="8">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B170" s="9"/>
       <c r="C170" s="10"/>
@@ -3503,7 +3461,7 @@
     </row>
     <row r="171" ht="20.05" customHeight="1">
       <c r="A171" t="s" s="8">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B171" s="9"/>
       <c r="C171" s="10"/>
@@ -3514,7 +3472,7 @@
     </row>
     <row r="172" ht="20.05" customHeight="1">
       <c r="A172" t="s" s="8">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B172" s="9"/>
       <c r="C172" s="10"/>
@@ -3525,7 +3483,7 @@
     </row>
     <row r="173" ht="20.05" customHeight="1">
       <c r="A173" t="s" s="8">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B173" s="9"/>
       <c r="C173" s="10"/>
@@ -3536,7 +3494,7 @@
     </row>
     <row r="174" ht="20.05" customHeight="1">
       <c r="A174" t="s" s="8">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="B174" s="9"/>
       <c r="C174" s="10"/>
@@ -3547,7 +3505,7 @@
     </row>
     <row r="175" ht="20.05" customHeight="1">
       <c r="A175" t="s" s="8">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B175" s="9"/>
       <c r="C175" s="10"/>
@@ -3558,7 +3516,7 @@
     </row>
     <row r="176" ht="20.05" customHeight="1">
       <c r="A176" t="s" s="8">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B176" s="9"/>
       <c r="C176" s="10"/>
@@ -3569,7 +3527,7 @@
     </row>
     <row r="177" ht="20.05" customHeight="1">
       <c r="A177" t="s" s="8">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B177" s="9"/>
       <c r="C177" s="10"/>
@@ -3580,7 +3538,7 @@
     </row>
     <row r="178" ht="20.05" customHeight="1">
       <c r="A178" t="s" s="8">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B178" s="9"/>
       <c r="C178" s="10"/>
@@ -3591,7 +3549,7 @@
     </row>
     <row r="179" ht="20.05" customHeight="1">
       <c r="A179" t="s" s="8">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B179" s="9"/>
       <c r="C179" s="10"/>
@@ -3602,7 +3560,7 @@
     </row>
     <row r="180" ht="20.05" customHeight="1">
       <c r="A180" t="s" s="8">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B180" s="9"/>
       <c r="C180" s="10"/>
@@ -3613,7 +3571,7 @@
     </row>
     <row r="181" ht="20.05" customHeight="1">
       <c r="A181" t="s" s="8">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B181" s="9"/>
       <c r="C181" s="10"/>
@@ -3624,7 +3582,7 @@
     </row>
     <row r="182" ht="20.05" customHeight="1">
       <c r="A182" t="s" s="8">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B182" s="9"/>
       <c r="C182" s="10"/>
@@ -3635,7 +3593,7 @@
     </row>
     <row r="183" ht="20.05" customHeight="1">
       <c r="A183" t="s" s="8">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="B183" s="9"/>
       <c r="C183" s="10"/>
@@ -3646,7 +3604,7 @@
     </row>
     <row r="184" ht="20.05" customHeight="1">
       <c r="A184" t="s" s="8">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B184" s="9"/>
       <c r="C184" s="10"/>
@@ -3657,7 +3615,7 @@
     </row>
     <row r="185" ht="20.05" customHeight="1">
       <c r="A185" t="s" s="8">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B185" s="9"/>
       <c r="C185" s="10"/>
@@ -3668,7 +3626,7 @@
     </row>
     <row r="186" ht="20.05" customHeight="1">
       <c r="A186" t="s" s="8">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B186" s="9"/>
       <c r="C186" s="10"/>
@@ -3679,7 +3637,7 @@
     </row>
     <row r="187" ht="20.05" customHeight="1">
       <c r="A187" t="s" s="8">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B187" s="9"/>
       <c r="C187" s="10"/>
@@ -3690,7 +3648,7 @@
     </row>
     <row r="188" ht="20.05" customHeight="1">
       <c r="A188" t="s" s="8">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B188" s="9"/>
       <c r="C188" s="10"/>
@@ -3701,7 +3659,7 @@
     </row>
     <row r="189" ht="20.05" customHeight="1">
       <c r="A189" t="s" s="8">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B189" s="9"/>
       <c r="C189" s="10"/>
@@ -3712,7 +3670,7 @@
     </row>
     <row r="190" ht="20.05" customHeight="1">
       <c r="A190" t="s" s="8">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B190" s="9"/>
       <c r="C190" s="10"/>
@@ -3723,7 +3681,7 @@
     </row>
     <row r="191" ht="20.05" customHeight="1">
       <c r="A191" t="s" s="8">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B191" s="9"/>
       <c r="C191" s="10"/>
@@ -3734,7 +3692,7 @@
     </row>
     <row r="192" ht="20.05" customHeight="1">
       <c r="A192" t="s" s="8">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="B192" s="9"/>
       <c r="C192" s="10"/>
@@ -3745,7 +3703,7 @@
     </row>
     <row r="193" ht="20.05" customHeight="1">
       <c r="A193" t="s" s="8">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B193" s="9"/>
       <c r="C193" s="10"/>
@@ -3756,7 +3714,7 @@
     </row>
     <row r="194" ht="20.05" customHeight="1">
       <c r="A194" t="s" s="8">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B194" s="9"/>
       <c r="C194" s="10"/>
@@ -3767,7 +3725,7 @@
     </row>
     <row r="195" ht="20.05" customHeight="1">
       <c r="A195" t="s" s="8">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="B195" s="9"/>
       <c r="C195" s="10"/>
@@ -3778,7 +3736,7 @@
     </row>
     <row r="196" ht="20.05" customHeight="1">
       <c r="A196" t="s" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B196" s="9"/>
       <c r="C196" s="10"/>
@@ -3789,7 +3747,7 @@
     </row>
     <row r="197" ht="20.05" customHeight="1">
       <c r="A197" t="s" s="8">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="B197" s="9"/>
       <c r="C197" s="10"/>
@@ -3800,7 +3758,7 @@
     </row>
     <row r="198" ht="20.05" customHeight="1">
       <c r="A198" t="s" s="8">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="B198" s="9"/>
       <c r="C198" s="10"/>
@@ -3811,7 +3769,7 @@
     </row>
     <row r="199" ht="20.05" customHeight="1">
       <c r="A199" t="s" s="8">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="B199" s="9"/>
       <c r="C199" s="10"/>
@@ -3822,7 +3780,7 @@
     </row>
     <row r="200" ht="20.05" customHeight="1">
       <c r="A200" t="s" s="8">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B200" s="9"/>
       <c r="C200" s="10"/>
@@ -3833,7 +3791,7 @@
     </row>
     <row r="201" ht="20.05" customHeight="1">
       <c r="A201" t="s" s="8">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="B201" s="9"/>
       <c r="C201" s="10"/>
@@ -3844,7 +3802,7 @@
     </row>
     <row r="202" ht="20.05" customHeight="1">
       <c r="A202" t="s" s="8">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B202" s="9"/>
       <c r="C202" s="10"/>
@@ -3855,7 +3813,7 @@
     </row>
     <row r="203" ht="20.05" customHeight="1">
       <c r="A203" t="s" s="8">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B203" s="9"/>
       <c r="C203" s="10"/>
@@ -3866,7 +3824,7 @@
     </row>
     <row r="204" ht="20.05" customHeight="1">
       <c r="A204" t="s" s="8">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B204" s="9"/>
       <c r="C204" s="10"/>
@@ -3877,7 +3835,7 @@
     </row>
     <row r="205" ht="20.05" customHeight="1">
       <c r="A205" t="s" s="8">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B205" s="9"/>
       <c r="C205" s="10"/>
@@ -3888,7 +3846,7 @@
     </row>
     <row r="206" ht="20.05" customHeight="1">
       <c r="A206" t="s" s="8">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B206" s="9"/>
       <c r="C206" s="10"/>
@@ -3899,7 +3857,7 @@
     </row>
     <row r="207" ht="20.05" customHeight="1">
       <c r="A207" t="s" s="8">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B207" s="9"/>
       <c r="C207" s="10"/>
@@ -3910,7 +3868,7 @@
     </row>
     <row r="208" ht="20.05" customHeight="1">
       <c r="A208" t="s" s="8">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B208" s="9"/>
       <c r="C208" s="10"/>
@@ -3921,7 +3879,7 @@
     </row>
     <row r="209" ht="20.05" customHeight="1">
       <c r="A209" t="s" s="8">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="B209" s="9"/>
       <c r="C209" s="10"/>
@@ -3932,7 +3890,7 @@
     </row>
     <row r="210" ht="20.05" customHeight="1">
       <c r="A210" t="s" s="8">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B210" s="9"/>
       <c r="C210" s="10"/>
@@ -3943,7 +3901,7 @@
     </row>
     <row r="211" ht="20.05" customHeight="1">
       <c r="A211" t="s" s="8">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B211" s="9"/>
       <c r="C211" s="10"/>
@@ -3954,7 +3912,7 @@
     </row>
     <row r="212" ht="20.05" customHeight="1">
       <c r="A212" t="s" s="8">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B212" s="9"/>
       <c r="C212" s="10"/>
@@ -3965,7 +3923,7 @@
     </row>
     <row r="213" ht="20.05" customHeight="1">
       <c r="A213" t="s" s="8">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B213" s="9"/>
       <c r="C213" s="10"/>
@@ -3976,7 +3934,7 @@
     </row>
     <row r="214" ht="20.05" customHeight="1">
       <c r="A214" t="s" s="8">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="B214" s="9"/>
       <c r="C214" s="10"/>
@@ -3987,7 +3945,7 @@
     </row>
     <row r="215" ht="20.05" customHeight="1">
       <c r="A215" t="s" s="8">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B215" s="9"/>
       <c r="C215" s="10"/>
@@ -3998,7 +3956,7 @@
     </row>
     <row r="216" ht="20.05" customHeight="1">
       <c r="A216" t="s" s="8">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B216" s="9"/>
       <c r="C216" s="10"/>
@@ -4009,7 +3967,7 @@
     </row>
     <row r="217" ht="20.05" customHeight="1">
       <c r="A217" t="s" s="8">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B217" s="9"/>
       <c r="C217" s="10"/>
@@ -4020,7 +3978,7 @@
     </row>
     <row r="218" ht="20.05" customHeight="1">
       <c r="A218" t="s" s="8">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B218" s="9"/>
       <c r="C218" s="10"/>
@@ -4031,7 +3989,7 @@
     </row>
     <row r="219" ht="20.05" customHeight="1">
       <c r="A219" t="s" s="8">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B219" s="9"/>
       <c r="C219" s="10"/>
@@ -4042,7 +4000,7 @@
     </row>
     <row r="220" ht="20.05" customHeight="1">
       <c r="A220" t="s" s="8">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="B220" s="9"/>
       <c r="C220" s="10"/>
@@ -4053,7 +4011,7 @@
     </row>
     <row r="221" ht="20.05" customHeight="1">
       <c r="A221" t="s" s="8">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B221" s="9"/>
       <c r="C221" s="10"/>
@@ -4064,7 +4022,7 @@
     </row>
     <row r="222" ht="20.05" customHeight="1">
       <c r="A222" t="s" s="8">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B222" s="9"/>
       <c r="C222" s="10"/>
@@ -4075,7 +4033,7 @@
     </row>
     <row r="223" ht="20.05" customHeight="1">
       <c r="A223" t="s" s="8">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B223" s="9"/>
       <c r="C223" s="10"/>
@@ -4086,7 +4044,7 @@
     </row>
     <row r="224" ht="20.05" customHeight="1">
       <c r="A224" t="s" s="8">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B224" s="9"/>
       <c r="C224" s="10"/>
@@ -4097,7 +4055,7 @@
     </row>
     <row r="225" ht="20.05" customHeight="1">
       <c r="A225" t="s" s="8">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B225" s="9"/>
       <c r="C225" s="10"/>
@@ -4108,7 +4066,7 @@
     </row>
     <row r="226" ht="20.05" customHeight="1">
       <c r="A226" t="s" s="8">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B226" s="9"/>
       <c r="C226" s="10"/>
@@ -4119,7 +4077,7 @@
     </row>
     <row r="227" ht="20.05" customHeight="1">
       <c r="A227" t="s" s="8">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B227" s="9"/>
       <c r="C227" s="10"/>
@@ -4130,7 +4088,7 @@
     </row>
     <row r="228" ht="20.05" customHeight="1">
       <c r="A228" t="s" s="8">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="B228" s="9"/>
       <c r="C228" s="10"/>
@@ -4141,7 +4099,7 @@
     </row>
     <row r="229" ht="20.05" customHeight="1">
       <c r="A229" t="s" s="8">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B229" s="9"/>
       <c r="C229" s="10"/>
@@ -4152,7 +4110,7 @@
     </row>
     <row r="230" ht="20.05" customHeight="1">
       <c r="A230" t="s" s="8">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="B230" s="9"/>
       <c r="C230" s="10"/>
@@ -4163,7 +4121,7 @@
     </row>
     <row r="231" ht="20.05" customHeight="1">
       <c r="A231" t="s" s="8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B231" s="9"/>
       <c r="C231" s="10"/>
@@ -4174,7 +4132,7 @@
     </row>
     <row r="232" ht="20.05" customHeight="1">
       <c r="A232" t="s" s="8">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B232" s="9"/>
       <c r="C232" s="10"/>
@@ -4185,7 +4143,7 @@
     </row>
     <row r="233" ht="20.05" customHeight="1">
       <c r="A233" t="s" s="8">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="B233" s="9"/>
       <c r="C233" s="10"/>
@@ -4196,7 +4154,7 @@
     </row>
     <row r="234" ht="20.05" customHeight="1">
       <c r="A234" t="s" s="8">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="B234" s="9"/>
       <c r="C234" s="10"/>
@@ -4207,7 +4165,7 @@
     </row>
     <row r="235" ht="20.05" customHeight="1">
       <c r="A235" t="s" s="8">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B235" s="9"/>
       <c r="C235" s="10"/>
@@ -4218,7 +4176,7 @@
     </row>
     <row r="236" ht="20.05" customHeight="1">
       <c r="A236" t="s" s="8">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B236" s="9"/>
       <c r="C236" s="10"/>
@@ -4229,7 +4187,7 @@
     </row>
     <row r="237" ht="20.05" customHeight="1">
       <c r="A237" t="s" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B237" s="9"/>
       <c r="C237" s="10"/>
@@ -4240,7 +4198,7 @@
     </row>
     <row r="238" ht="20.05" customHeight="1">
       <c r="A238" t="s" s="8">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B238" s="9"/>
       <c r="C238" s="10"/>
@@ -4251,7 +4209,7 @@
     </row>
     <row r="239" ht="20.05" customHeight="1">
       <c r="A239" t="s" s="8">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B239" s="9"/>
       <c r="C239" s="10"/>
@@ -4262,7 +4220,7 @@
     </row>
     <row r="240" ht="20.05" customHeight="1">
       <c r="A240" t="s" s="8">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B240" s="9"/>
       <c r="C240" s="10"/>
@@ -4273,7 +4231,7 @@
     </row>
     <row r="241" ht="20.05" customHeight="1">
       <c r="A241" t="s" s="8">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B241" s="9"/>
       <c r="C241" s="10"/>
@@ -4284,7 +4242,7 @@
     </row>
     <row r="242" ht="20.05" customHeight="1">
       <c r="A242" t="s" s="8">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="B242" s="9"/>
       <c r="C242" s="10"/>
@@ -4295,7 +4253,7 @@
     </row>
     <row r="243" ht="20.05" customHeight="1">
       <c r="A243" t="s" s="8">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B243" s="9"/>
       <c r="C243" s="10"/>
@@ -4306,7 +4264,7 @@
     </row>
     <row r="244" ht="20.05" customHeight="1">
       <c r="A244" t="s" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B244" s="9"/>
       <c r="C244" s="10"/>
@@ -4317,7 +4275,7 @@
     </row>
     <row r="245" ht="20.05" customHeight="1">
       <c r="A245" t="s" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B245" s="9"/>
       <c r="C245" s="10"/>
@@ -4328,7 +4286,7 @@
     </row>
     <row r="246" ht="20.05" customHeight="1">
       <c r="A246" t="s" s="8">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B246" s="9"/>
       <c r="C246" s="10"/>
@@ -4339,7 +4297,7 @@
     </row>
     <row r="247" ht="20.05" customHeight="1">
       <c r="A247" t="s" s="8">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="B247" s="9"/>
       <c r="C247" s="10"/>
@@ -4350,7 +4308,7 @@
     </row>
     <row r="248" ht="20.05" customHeight="1">
       <c r="A248" t="s" s="8">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B248" s="9"/>
       <c r="C248" s="10"/>
@@ -4361,7 +4319,7 @@
     </row>
     <row r="249" ht="20.05" customHeight="1">
       <c r="A249" t="s" s="8">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="B249" s="9"/>
       <c r="C249" s="10"/>
@@ -4372,7 +4330,7 @@
     </row>
     <row r="250" ht="20.05" customHeight="1">
       <c r="A250" t="s" s="8">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="B250" s="9"/>
       <c r="C250" s="10"/>
@@ -4383,7 +4341,7 @@
     </row>
     <row r="251" ht="20.05" customHeight="1">
       <c r="A251" t="s" s="8">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B251" s="9"/>
       <c r="C251" s="10"/>
@@ -4394,7 +4352,7 @@
     </row>
     <row r="252" ht="20.05" customHeight="1">
       <c r="A252" t="s" s="8">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B252" s="9"/>
       <c r="C252" s="10"/>
@@ -4405,7 +4363,7 @@
     </row>
     <row r="253" ht="20.05" customHeight="1">
       <c r="A253" t="s" s="8">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B253" s="9"/>
       <c r="C253" s="10"/>
@@ -4427,7 +4385,7 @@
     </row>
     <row r="255" ht="20.05" customHeight="1">
       <c r="A255" t="s" s="8">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B255" s="9"/>
       <c r="C255" s="10"/>
@@ -4449,7 +4407,7 @@
     </row>
     <row r="257" ht="20.05" customHeight="1">
       <c r="A257" t="s" s="8">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B257" s="9"/>
       <c r="C257" s="10"/>
@@ -4460,7 +4418,7 @@
     </row>
     <row r="258" ht="20.05" customHeight="1">
       <c r="A258" t="s" s="8">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B258" s="9"/>
       <c r="C258" s="10"/>
@@ -4471,7 +4429,7 @@
     </row>
     <row r="259" ht="20.05" customHeight="1">
       <c r="A259" t="s" s="8">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="B259" s="9"/>
       <c r="C259" s="10"/>
@@ -4482,7 +4440,7 @@
     </row>
     <row r="260" ht="20.05" customHeight="1">
       <c r="A260" t="s" s="8">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B260" s="9"/>
       <c r="C260" s="10"/>
@@ -4493,7 +4451,7 @@
     </row>
     <row r="261" ht="20.05" customHeight="1">
       <c r="A261" t="s" s="8">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B261" s="9"/>
       <c r="C261" s="10"/>
@@ -4504,7 +4462,7 @@
     </row>
     <row r="262" ht="20.05" customHeight="1">
       <c r="A262" t="s" s="8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B262" s="9"/>
       <c r="C262" s="10"/>
@@ -4515,7 +4473,7 @@
     </row>
     <row r="263" ht="20.05" customHeight="1">
       <c r="A263" t="s" s="8">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B263" s="9"/>
       <c r="C263" s="10"/>
@@ -4537,7 +4495,7 @@
     </row>
     <row r="265" ht="20.05" customHeight="1">
       <c r="A265" t="s" s="8">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B265" s="9"/>
       <c r="C265" s="10"/>
@@ -4548,7 +4506,7 @@
     </row>
     <row r="266" ht="20.05" customHeight="1">
       <c r="A266" t="s" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B266" s="9"/>
       <c r="C266" s="10"/>
@@ -4559,7 +4517,7 @@
     </row>
     <row r="267" ht="20.05" customHeight="1">
       <c r="A267" t="s" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B267" s="9"/>
       <c r="C267" s="10"/>
@@ -4570,7 +4528,7 @@
     </row>
     <row r="268" ht="20.05" customHeight="1">
       <c r="A268" t="s" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B268" s="9"/>
       <c r="C268" s="10"/>
@@ -4581,7 +4539,7 @@
     </row>
     <row r="269" ht="20.05" customHeight="1">
       <c r="A269" t="s" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B269" s="9"/>
       <c r="C269" s="10"/>
@@ -4592,7 +4550,7 @@
     </row>
     <row r="270" ht="20.05" customHeight="1">
       <c r="A270" t="s" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B270" s="9"/>
       <c r="C270" s="10"/>
@@ -4603,7 +4561,7 @@
     </row>
     <row r="271" ht="20.05" customHeight="1">
       <c r="A271" t="s" s="8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B271" s="9"/>
       <c r="C271" s="10"/>
@@ -4614,7 +4572,7 @@
     </row>
     <row r="272" ht="20.05" customHeight="1">
       <c r="A272" t="s" s="8">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B272" s="9"/>
       <c r="C272" s="10"/>
@@ -4625,7 +4583,7 @@
     </row>
     <row r="273" ht="20.05" customHeight="1">
       <c r="A273" t="s" s="8">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B273" s="9"/>
       <c r="C273" s="10"/>
@@ -4636,7 +4594,7 @@
     </row>
     <row r="274" ht="20.05" customHeight="1">
       <c r="A274" t="s" s="8">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B274" s="9"/>
       <c r="C274" s="10"/>
@@ -4647,7 +4605,7 @@
     </row>
     <row r="275" ht="20.05" customHeight="1">
       <c r="A275" t="s" s="8">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B275" s="9"/>
       <c r="C275" s="10"/>
@@ -4658,7 +4616,7 @@
     </row>
     <row r="276" ht="20.05" customHeight="1">
       <c r="A276" t="s" s="8">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B276" s="9"/>
       <c r="C276" s="10"/>
@@ -4669,7 +4627,7 @@
     </row>
     <row r="277" ht="20.05" customHeight="1">
       <c r="A277" t="s" s="8">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B277" s="9"/>
       <c r="C277" s="10"/>
@@ -4680,7 +4638,7 @@
     </row>
     <row r="278" ht="20.05" customHeight="1">
       <c r="A278" t="s" s="8">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B278" s="9"/>
       <c r="C278" s="10"/>
@@ -4691,7 +4649,7 @@
     </row>
     <row r="279" ht="20.05" customHeight="1">
       <c r="A279" t="s" s="8">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B279" s="9"/>
       <c r="C279" s="10"/>
@@ -4702,7 +4660,7 @@
     </row>
     <row r="280" ht="20.05" customHeight="1">
       <c r="A280" t="s" s="8">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B280" s="9"/>
       <c r="C280" s="10"/>
@@ -4713,7 +4671,7 @@
     </row>
     <row r="281" ht="20.05" customHeight="1">
       <c r="A281" t="s" s="8">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B281" s="9"/>
       <c r="C281" s="10"/>
@@ -4724,7 +4682,7 @@
     </row>
     <row r="282" ht="20.05" customHeight="1">
       <c r="A282" t="s" s="8">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B282" s="9"/>
       <c r="C282" s="10"/>
@@ -4735,7 +4693,7 @@
     </row>
     <row r="283" ht="20.05" customHeight="1">
       <c r="A283" t="s" s="8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B283" s="9"/>
       <c r="C283" s="10"/>
@@ -4746,7 +4704,7 @@
     </row>
     <row r="284" ht="20.05" customHeight="1">
       <c r="A284" t="s" s="8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B284" s="9"/>
       <c r="C284" s="10"/>
@@ -4757,7 +4715,7 @@
     </row>
     <row r="285" ht="20.05" customHeight="1">
       <c r="A285" t="s" s="8">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B285" s="9"/>
       <c r="C285" s="10"/>
@@ -4768,7 +4726,7 @@
     </row>
     <row r="286" ht="20.05" customHeight="1">
       <c r="A286" t="s" s="8">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="B286" s="9"/>
       <c r="C286" s="10"/>
@@ -4779,7 +4737,7 @@
     </row>
     <row r="287" ht="20.05" customHeight="1">
       <c r="A287" t="s" s="8">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B287" s="9"/>
       <c r="C287" s="10"/>
@@ -4790,7 +4748,7 @@
     </row>
     <row r="288" ht="20.05" customHeight="1">
       <c r="A288" t="s" s="8">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B288" s="9"/>
       <c r="C288" s="10"/>
@@ -4801,7 +4759,7 @@
     </row>
     <row r="289" ht="20.05" customHeight="1">
       <c r="A289" t="s" s="8">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B289" s="9"/>
       <c r="C289" s="10"/>
@@ -4812,7 +4770,7 @@
     </row>
     <row r="290" ht="20.05" customHeight="1">
       <c r="A290" t="s" s="8">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B290" s="9"/>
       <c r="C290" s="10"/>
@@ -4823,7 +4781,7 @@
     </row>
     <row r="291" ht="20.05" customHeight="1">
       <c r="A291" t="s" s="8">
-        <v>31</v>
+        <v>67</v>
       </c>
       <c r="B291" s="9"/>
       <c r="C291" s="10"/>
@@ -4834,7 +4792,7 @@
     </row>
     <row r="292" ht="20.05" customHeight="1">
       <c r="A292" t="s" s="8">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B292" s="9"/>
       <c r="C292" s="10"/>
@@ -4845,7 +4803,7 @@
     </row>
     <row r="293" ht="20.05" customHeight="1">
       <c r="A293" t="s" s="8">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="B293" s="9"/>
       <c r="C293" s="10"/>
@@ -4856,7 +4814,7 @@
     </row>
     <row r="294" ht="20.05" customHeight="1">
       <c r="A294" t="s" s="8">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="B294" s="9"/>
       <c r="C294" s="10"/>
@@ -4867,7 +4825,7 @@
     </row>
     <row r="295" ht="20.05" customHeight="1">
       <c r="A295" t="s" s="8">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B295" s="9"/>
       <c r="C295" s="10"/>
@@ -4878,7 +4836,7 @@
     </row>
     <row r="296" ht="20.05" customHeight="1">
       <c r="A296" t="s" s="8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B296" s="9"/>
       <c r="C296" s="10"/>
@@ -4889,7 +4847,7 @@
     </row>
     <row r="297" ht="20.05" customHeight="1">
       <c r="A297" t="s" s="8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B297" s="9"/>
       <c r="C297" s="10"/>
@@ -4900,7 +4858,7 @@
     </row>
     <row r="298" ht="20.05" customHeight="1">
       <c r="A298" t="s" s="8">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="B298" s="9"/>
       <c r="C298" s="10"/>
@@ -4911,7 +4869,7 @@
     </row>
     <row r="299" ht="20.05" customHeight="1">
       <c r="A299" t="s" s="8">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="B299" s="9"/>
       <c r="C299" s="10"/>
@@ -4922,7 +4880,7 @@
     </row>
     <row r="300" ht="20.05" customHeight="1">
       <c r="A300" t="s" s="8">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B300" s="9"/>
       <c r="C300" s="10"/>
@@ -4933,7 +4891,7 @@
     </row>
     <row r="301" ht="20.05" customHeight="1">
       <c r="A301" t="s" s="8">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="B301" s="9"/>
       <c r="C301" s="10"/>
@@ -4944,7 +4902,7 @@
     </row>
     <row r="302" ht="20.05" customHeight="1">
       <c r="A302" t="s" s="8">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="B302" s="9"/>
       <c r="C302" s="10"/>
@@ -4955,7 +4913,7 @@
     </row>
     <row r="303" ht="20.05" customHeight="1">
       <c r="A303" t="s" s="8">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B303" s="9"/>
       <c r="C303" s="10"/>
@@ -4966,7 +4924,7 @@
     </row>
     <row r="304" ht="20.05" customHeight="1">
       <c r="A304" t="s" s="8">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B304" s="9"/>
       <c r="C304" s="10"/>
@@ -4977,7 +4935,7 @@
     </row>
     <row r="305" ht="20.05" customHeight="1">
       <c r="A305" t="s" s="8">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B305" s="9"/>
       <c r="C305" s="10"/>
@@ -4988,7 +4946,7 @@
     </row>
     <row r="306" ht="20.05" customHeight="1">
       <c r="A306" t="s" s="8">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B306" s="9"/>
       <c r="C306" s="10"/>
@@ -4999,7 +4957,7 @@
     </row>
     <row r="307" ht="20.05" customHeight="1">
       <c r="A307" t="s" s="8">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="B307" s="9"/>
       <c r="C307" s="10"/>
@@ -5010,7 +4968,7 @@
     </row>
     <row r="308" ht="20.05" customHeight="1">
       <c r="A308" t="s" s="8">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B308" s="9"/>
       <c r="C308" s="10"/>
@@ -5021,7 +4979,7 @@
     </row>
     <row r="309" ht="20.05" customHeight="1">
       <c r="A309" t="s" s="8">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B309" s="9"/>
       <c r="C309" s="10"/>
@@ -5032,7 +4990,7 @@
     </row>
     <row r="310" ht="20.05" customHeight="1">
       <c r="A310" t="s" s="8">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B310" s="9"/>
       <c r="C310" s="10"/>
@@ -5043,7 +5001,7 @@
     </row>
     <row r="311" ht="20.05" customHeight="1">
       <c r="A311" t="s" s="8">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B311" s="9"/>
       <c r="C311" s="10"/>
@@ -5054,7 +5012,7 @@
     </row>
     <row r="312" ht="20.05" customHeight="1">
       <c r="A312" t="s" s="8">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B312" s="9"/>
       <c r="C312" s="10"/>
@@ -5065,7 +5023,7 @@
     </row>
     <row r="313" ht="20.05" customHeight="1">
       <c r="A313" t="s" s="8">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B313" s="9"/>
       <c r="C313" s="10"/>
@@ -5076,7 +5034,7 @@
     </row>
     <row r="314" ht="20.05" customHeight="1">
       <c r="A314" t="s" s="8">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B314" s="9"/>
       <c r="C314" s="10"/>
@@ -5087,7 +5045,7 @@
     </row>
     <row r="315" ht="20.05" customHeight="1">
       <c r="A315" t="s" s="8">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B315" s="9"/>
       <c r="C315" s="10"/>
@@ -5098,7 +5056,7 @@
     </row>
     <row r="316" ht="20.05" customHeight="1">
       <c r="A316" t="s" s="8">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="B316" s="9"/>
       <c r="C316" s="10"/>
@@ -5109,7 +5067,7 @@
     </row>
     <row r="317" ht="20.05" customHeight="1">
       <c r="A317" t="s" s="8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B317" s="9"/>
       <c r="C317" s="10"/>
@@ -5120,7 +5078,7 @@
     </row>
     <row r="318" ht="20.05" customHeight="1">
       <c r="A318" t="s" s="8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B318" s="9"/>
       <c r="C318" s="10"/>
@@ -5131,7 +5089,7 @@
     </row>
     <row r="319" ht="20.05" customHeight="1">
       <c r="A319" t="s" s="8">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="B319" s="9"/>
       <c r="C319" s="10"/>
@@ -5142,7 +5100,7 @@
     </row>
     <row r="320" ht="20.05" customHeight="1">
       <c r="A320" t="s" s="8">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B320" s="9"/>
       <c r="C320" s="10"/>
@@ -5153,7 +5111,7 @@
     </row>
     <row r="321" ht="20.05" customHeight="1">
       <c r="A321" t="s" s="8">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="B321" s="9"/>
       <c r="C321" s="10"/>
@@ -5164,7 +5122,7 @@
     </row>
     <row r="322" ht="20.05" customHeight="1">
       <c r="A322" t="s" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B322" s="9"/>
       <c r="C322" s="10"/>
@@ -5175,7 +5133,7 @@
     </row>
     <row r="323" ht="20.05" customHeight="1">
       <c r="A323" t="s" s="8">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B323" s="9"/>
       <c r="C323" s="10"/>
@@ -5186,7 +5144,7 @@
     </row>
     <row r="324" ht="20.05" customHeight="1">
       <c r="A324" t="s" s="8">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B324" s="9"/>
       <c r="C324" s="10"/>
@@ -5197,7 +5155,7 @@
     </row>
     <row r="325" ht="20.05" customHeight="1">
       <c r="A325" t="s" s="8">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B325" s="9"/>
       <c r="C325" s="10"/>
@@ -5208,7 +5166,7 @@
     </row>
     <row r="326" ht="20.05" customHeight="1">
       <c r="A326" t="s" s="8">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B326" s="9"/>
       <c r="C326" s="10"/>
@@ -5219,7 +5177,7 @@
     </row>
     <row r="327" ht="20.05" customHeight="1">
       <c r="A327" t="s" s="8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B327" s="9"/>
       <c r="C327" s="10"/>
@@ -5230,7 +5188,7 @@
     </row>
     <row r="328" ht="20.05" customHeight="1">
       <c r="A328" t="s" s="8">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B328" s="9"/>
       <c r="C328" s="10"/>
@@ -5241,7 +5199,7 @@
     </row>
     <row r="329" ht="20.05" customHeight="1">
       <c r="A329" t="s" s="8">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B329" s="9"/>
       <c r="C329" s="10"/>
@@ -5252,7 +5210,7 @@
     </row>
     <row r="330" ht="20.05" customHeight="1">
       <c r="A330" t="s" s="8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B330" s="9"/>
       <c r="C330" s="10"/>
@@ -5263,7 +5221,7 @@
     </row>
     <row r="331" ht="20.05" customHeight="1">
       <c r="A331" t="s" s="8">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B331" s="9"/>
       <c r="C331" s="10"/>
@@ -5274,7 +5232,7 @@
     </row>
     <row r="332" ht="20.05" customHeight="1">
       <c r="A332" t="s" s="8">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B332" s="9"/>
       <c r="C332" s="10"/>
@@ -5285,7 +5243,7 @@
     </row>
     <row r="333" ht="20.05" customHeight="1">
       <c r="A333" t="s" s="8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B333" s="9"/>
       <c r="C333" s="10"/>
@@ -5296,7 +5254,7 @@
     </row>
     <row r="334" ht="20.05" customHeight="1">
       <c r="A334" t="s" s="8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B334" s="9"/>
       <c r="C334" s="10"/>
@@ -5307,7 +5265,7 @@
     </row>
     <row r="335" ht="20.05" customHeight="1">
       <c r="A335" t="s" s="8">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B335" s="9"/>
       <c r="C335" s="10"/>
@@ -5318,7 +5276,7 @@
     </row>
     <row r="336" ht="20.05" customHeight="1">
       <c r="A336" t="s" s="8">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B336" s="9"/>
       <c r="C336" s="10"/>
@@ -5329,7 +5287,7 @@
     </row>
     <row r="337" ht="20.05" customHeight="1">
       <c r="A337" t="s" s="8">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="B337" s="9"/>
       <c r="C337" s="10"/>
@@ -5340,7 +5298,7 @@
     </row>
     <row r="338" ht="20.05" customHeight="1">
       <c r="A338" t="s" s="8">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B338" s="9"/>
       <c r="C338" s="10"/>
@@ -5351,7 +5309,7 @@
     </row>
     <row r="339" ht="20.05" customHeight="1">
       <c r="A339" t="s" s="8">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B339" s="9"/>
       <c r="C339" s="10"/>
@@ -5362,7 +5320,7 @@
     </row>
     <row r="340" ht="20.05" customHeight="1">
       <c r="A340" t="s" s="8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B340" s="9"/>
       <c r="C340" s="10"/>
@@ -5373,7 +5331,7 @@
     </row>
     <row r="341" ht="20.05" customHeight="1">
       <c r="A341" t="s" s="8">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B341" s="9"/>
       <c r="C341" s="10"/>
@@ -5384,7 +5342,7 @@
     </row>
     <row r="342" ht="20.05" customHeight="1">
       <c r="A342" t="s" s="8">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B342" s="9"/>
       <c r="C342" s="10"/>
@@ -5395,7 +5353,7 @@
     </row>
     <row r="343" ht="20.05" customHeight="1">
       <c r="A343" t="s" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B343" s="9"/>
       <c r="C343" s="10"/>
@@ -5406,7 +5364,7 @@
     </row>
     <row r="344" ht="20.05" customHeight="1">
       <c r="A344" t="s" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B344" s="9"/>
       <c r="C344" s="10"/>
@@ -5417,7 +5375,7 @@
     </row>
     <row r="345" ht="20.05" customHeight="1">
       <c r="A345" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B345" s="9"/>
       <c r="C345" s="10"/>
@@ -5428,7 +5386,7 @@
     </row>
     <row r="346" ht="20.05" customHeight="1">
       <c r="A346" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B346" s="9"/>
       <c r="C346" s="10"/>
@@ -5439,7 +5397,7 @@
     </row>
     <row r="347" ht="20.05" customHeight="1">
       <c r="A347" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B347" s="9"/>
       <c r="C347" s="10"/>
@@ -5450,7 +5408,7 @@
     </row>
     <row r="348" ht="20.05" customHeight="1">
       <c r="A348" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B348" s="9"/>
       <c r="C348" s="10"/>
@@ -5461,7 +5419,7 @@
     </row>
     <row r="349" ht="20.05" customHeight="1">
       <c r="A349" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B349" s="9"/>
       <c r="C349" s="10"/>
@@ -5472,7 +5430,7 @@
     </row>
     <row r="350" ht="20.05" customHeight="1">
       <c r="A350" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B350" s="9"/>
       <c r="C350" s="10"/>
@@ -5483,7 +5441,7 @@
     </row>
     <row r="351" ht="20.05" customHeight="1">
       <c r="A351" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B351" s="9"/>
       <c r="C351" s="10"/>
@@ -5494,7 +5452,7 @@
     </row>
     <row r="352" ht="20.05" customHeight="1">
       <c r="A352" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B352" s="9"/>
       <c r="C352" s="10"/>
@@ -5505,7 +5463,7 @@
     </row>
     <row r="353" ht="20.05" customHeight="1">
       <c r="A353" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B353" s="9"/>
       <c r="C353" s="10"/>
@@ -5516,7 +5474,7 @@
     </row>
     <row r="354" ht="20.05" customHeight="1">
       <c r="A354" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B354" s="9"/>
       <c r="C354" s="10"/>
@@ -5527,7 +5485,7 @@
     </row>
     <row r="355" ht="20.05" customHeight="1">
       <c r="A355" t="s" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B355" s="9"/>
       <c r="C355" s="10"/>
@@ -5538,7 +5496,7 @@
     </row>
     <row r="356" ht="20.05" customHeight="1">
       <c r="A356" t="s" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B356" s="9"/>
       <c r="C356" s="10"/>
@@ -5549,7 +5507,7 @@
     </row>
     <row r="357" ht="20.05" customHeight="1">
       <c r="A357" t="s" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B357" s="9"/>
       <c r="C357" s="10"/>
@@ -5560,7 +5518,7 @@
     </row>
     <row r="358" ht="20.05" customHeight="1">
       <c r="A358" t="s" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B358" s="9"/>
       <c r="C358" s="10"/>
@@ -5571,7 +5529,7 @@
     </row>
     <row r="359" ht="20.05" customHeight="1">
       <c r="A359" t="s" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B359" s="9"/>
       <c r="C359" s="10"/>
@@ -5582,7 +5540,7 @@
     </row>
     <row r="360" ht="20.05" customHeight="1">
       <c r="A360" t="s" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B360" s="9"/>
       <c r="C360" s="10"/>
@@ -5593,7 +5551,7 @@
     </row>
     <row r="361" ht="20.05" customHeight="1">
       <c r="A361" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B361" s="9"/>
       <c r="C361" s="10"/>
@@ -5604,7 +5562,7 @@
     </row>
     <row r="362" ht="20.05" customHeight="1">
       <c r="A362" t="s" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B362" s="9"/>
       <c r="C362" s="10"/>
@@ -5615,7 +5573,7 @@
     </row>
     <row r="363" ht="20.05" customHeight="1">
       <c r="A363" t="s" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B363" s="9"/>
       <c r="C363" s="10"/>
@@ -5626,7 +5584,7 @@
     </row>
     <row r="364" ht="20.05" customHeight="1">
       <c r="A364" t="s" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B364" s="9"/>
       <c r="C364" s="10"/>
@@ -5637,7 +5595,7 @@
     </row>
     <row r="365" ht="20.05" customHeight="1">
       <c r="A365" t="s" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B365" s="9"/>
       <c r="C365" s="10"/>
@@ -5648,7 +5606,7 @@
     </row>
     <row r="366" ht="20.05" customHeight="1">
       <c r="A366" t="s" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B366" s="9"/>
       <c r="C366" s="10"/>
@@ -5659,7 +5617,7 @@
     </row>
     <row r="367" ht="20.05" customHeight="1">
       <c r="A367" t="s" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B367" s="9"/>
       <c r="C367" s="10"/>
@@ -5670,7 +5628,7 @@
     </row>
     <row r="368" ht="20.05" customHeight="1">
       <c r="A368" t="s" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B368" s="9"/>
       <c r="C368" s="10"/>
@@ -5681,7 +5639,7 @@
     </row>
     <row r="369" ht="20.05" customHeight="1">
       <c r="A369" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B369" s="9"/>
       <c r="C369" s="10"/>
@@ -5692,7 +5650,7 @@
     </row>
     <row r="370" ht="20.05" customHeight="1">
       <c r="A370" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B370" s="9"/>
       <c r="C370" s="10"/>
@@ -5703,7 +5661,7 @@
     </row>
     <row r="371" ht="20.05" customHeight="1">
       <c r="A371" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B371" s="9"/>
       <c r="C371" s="10"/>
@@ -5714,7 +5672,7 @@
     </row>
     <row r="372" ht="20.05" customHeight="1">
       <c r="A372" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B372" s="9"/>
       <c r="C372" s="10"/>
@@ -5725,7 +5683,7 @@
     </row>
     <row r="373" ht="20.05" customHeight="1">
       <c r="A373" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B373" s="9"/>
       <c r="C373" s="10"/>
@@ -5736,7 +5694,7 @@
     </row>
     <row r="374" ht="20.05" customHeight="1">
       <c r="A374" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B374" s="9"/>
       <c r="C374" s="10"/>
@@ -5747,7 +5705,7 @@
     </row>
     <row r="375" ht="20.05" customHeight="1">
       <c r="A375" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B375" s="9"/>
       <c r="C375" s="10"/>
@@ -5758,7 +5716,7 @@
     </row>
     <row r="376" ht="20.05" customHeight="1">
       <c r="A376" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B376" s="9"/>
       <c r="C376" s="10"/>
@@ -5769,7 +5727,7 @@
     </row>
     <row r="377" ht="20.05" customHeight="1">
       <c r="A377" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B377" s="9"/>
       <c r="C377" s="10"/>
@@ -5780,7 +5738,7 @@
     </row>
     <row r="378" ht="20.05" customHeight="1">
       <c r="A378" t="s" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B378" s="9"/>
       <c r="C378" s="10"/>
@@ -5791,7 +5749,7 @@
     </row>
     <row r="379" ht="20.05" customHeight="1">
       <c r="A379" t="s" s="8">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B379" s="9"/>
       <c r="C379" s="10"/>
@@ -5802,7 +5760,7 @@
     </row>
     <row r="380" ht="20.05" customHeight="1">
       <c r="A380" t="s" s="8">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="B380" s="9"/>
       <c r="C380" s="10"/>
@@ -5813,7 +5771,7 @@
     </row>
     <row r="381" ht="20.05" customHeight="1">
       <c r="A381" t="s" s="8">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="B381" s="9"/>
       <c r="C381" s="10"/>
@@ -5824,7 +5782,7 @@
     </row>
     <row r="382" ht="20.05" customHeight="1">
       <c r="A382" t="s" s="8">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B382" s="9"/>
       <c r="C382" s="10"/>
@@ -5835,7 +5793,7 @@
     </row>
     <row r="383" ht="20.05" customHeight="1">
       <c r="A383" t="s" s="8">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="B383" s="9"/>
       <c r="C383" s="10"/>
@@ -5846,7 +5804,7 @@
     </row>
     <row r="384" ht="20.05" customHeight="1">
       <c r="A384" t="s" s="8">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B384" s="9"/>
       <c r="C384" s="10"/>
@@ -5857,7 +5815,7 @@
     </row>
     <row r="385" ht="20.05" customHeight="1">
       <c r="A385" t="s" s="8">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="B385" s="9"/>
       <c r="C385" s="10"/>
@@ -5868,7 +5826,7 @@
     </row>
     <row r="386" ht="20.05" customHeight="1">
       <c r="A386" t="s" s="8">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="B386" s="9"/>
       <c r="C386" s="10"/>
@@ -5879,7 +5837,7 @@
     </row>
     <row r="387" ht="20.05" customHeight="1">
       <c r="A387" t="s" s="8">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B387" s="9"/>
       <c r="C387" s="10"/>
@@ -5890,7 +5848,7 @@
     </row>
     <row r="388" ht="20.05" customHeight="1">
       <c r="A388" t="s" s="8">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B388" s="9"/>
       <c r="C388" s="10"/>
@@ -5901,7 +5859,7 @@
     </row>
     <row r="389" ht="20.05" customHeight="1">
       <c r="A389" t="s" s="8">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="B389" s="9"/>
       <c r="C389" s="10"/>
@@ -5912,7 +5870,7 @@
     </row>
     <row r="390" ht="20.05" customHeight="1">
       <c r="A390" t="s" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B390" s="9"/>
       <c r="C390" s="10"/>
@@ -5923,7 +5881,7 @@
     </row>
     <row r="391" ht="20.05" customHeight="1">
       <c r="A391" t="s" s="8">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B391" s="9"/>
       <c r="C391" s="10"/>
@@ -5934,7 +5892,7 @@
     </row>
     <row r="392" ht="20.05" customHeight="1">
       <c r="A392" t="s" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B392" s="9"/>
       <c r="C392" s="10"/>
@@ -5945,7 +5903,7 @@
     </row>
     <row r="393" ht="20.05" customHeight="1">
       <c r="A393" t="s" s="8">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B393" s="9"/>
       <c r="C393" s="10"/>
@@ -5956,7 +5914,7 @@
     </row>
     <row r="394" ht="20.05" customHeight="1">
       <c r="A394" t="s" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B394" s="9"/>
       <c r="C394" s="10"/>
@@ -5967,7 +5925,7 @@
     </row>
     <row r="395" ht="20.05" customHeight="1">
       <c r="A395" t="s" s="8">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B395" s="9"/>
       <c r="C395" s="10"/>
@@ -5978,7 +5936,7 @@
     </row>
     <row r="396" ht="20.05" customHeight="1">
       <c r="A396" t="s" s="8">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B396" s="9"/>
       <c r="C396" s="10"/>
@@ -5989,7 +5947,7 @@
     </row>
     <row r="397" ht="20.05" customHeight="1">
       <c r="A397" t="s" s="8">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B397" s="9"/>
       <c r="C397" s="10"/>
@@ -6000,7 +5958,7 @@
     </row>
     <row r="398" ht="20.05" customHeight="1">
       <c r="A398" t="s" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B398" s="9"/>
       <c r="C398" s="10"/>
@@ -6022,7 +5980,7 @@
     </row>
     <row r="400" ht="20.05" customHeight="1">
       <c r="A400" t="s" s="8">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B400" s="9"/>
       <c r="C400" s="10"/>
@@ -6033,7 +5991,7 @@
     </row>
     <row r="401" ht="20.05" customHeight="1">
       <c r="A401" t="s" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B401" s="9"/>
       <c r="C401" s="10"/>
@@ -6044,7 +6002,7 @@
     </row>
     <row r="402" ht="20.05" customHeight="1">
       <c r="A402" t="s" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B402" s="9"/>
       <c r="C402" s="10"/>
@@ -6055,7 +6013,7 @@
     </row>
     <row r="403" ht="20.05" customHeight="1">
       <c r="A403" t="s" s="8">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B403" s="9"/>
       <c r="C403" s="10"/>
@@ -6066,7 +6024,7 @@
     </row>
     <row r="404" ht="20.05" customHeight="1">
       <c r="A404" t="s" s="8">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="B404" s="9"/>
       <c r="C404" s="10"/>
@@ -6077,7 +6035,7 @@
     </row>
     <row r="405" ht="20.05" customHeight="1">
       <c r="A405" t="s" s="8">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B405" s="9"/>
       <c r="C405" s="10"/>
@@ -6088,7 +6046,7 @@
     </row>
     <row r="406" ht="20.05" customHeight="1">
       <c r="A406" t="s" s="8">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B406" s="9"/>
       <c r="C406" s="10"/>
@@ -6099,7 +6057,7 @@
     </row>
     <row r="407" ht="20.05" customHeight="1">
       <c r="A407" t="s" s="8">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B407" s="9"/>
       <c r="C407" s="10"/>
@@ -6110,7 +6068,7 @@
     </row>
     <row r="408" ht="20.05" customHeight="1">
       <c r="A408" t="s" s="8">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B408" s="9"/>
       <c r="C408" s="10"/>
@@ -6121,7 +6079,7 @@
     </row>
     <row r="409" ht="20.05" customHeight="1">
       <c r="A409" t="s" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B409" s="9"/>
       <c r="C409" s="10"/>
@@ -6132,7 +6090,7 @@
     </row>
     <row r="410" ht="20.05" customHeight="1">
       <c r="A410" t="s" s="8">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B410" s="9"/>
       <c r="C410" s="10"/>
@@ -6143,7 +6101,7 @@
     </row>
     <row r="411" ht="20.05" customHeight="1">
       <c r="A411" t="s" s="8">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B411" s="9"/>
       <c r="C411" s="10"/>
@@ -6154,7 +6112,7 @@
     </row>
     <row r="412" ht="20.05" customHeight="1">
       <c r="A412" t="s" s="8">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="B412" s="9"/>
       <c r="C412" s="10"/>
@@ -6165,7 +6123,7 @@
     </row>
     <row r="413" ht="20.05" customHeight="1">
       <c r="A413" t="s" s="8">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="B413" s="9"/>
       <c r="C413" s="10"/>
@@ -6176,7 +6134,7 @@
     </row>
     <row r="414" ht="20.05" customHeight="1">
       <c r="A414" t="s" s="8">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B414" s="9"/>
       <c r="C414" s="10"/>
@@ -6187,7 +6145,7 @@
     </row>
     <row r="415" ht="20.05" customHeight="1">
       <c r="A415" t="s" s="8">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B415" s="9"/>
       <c r="C415" s="10"/>
@@ -6209,7 +6167,7 @@
     </row>
     <row r="417" ht="20.05" customHeight="1">
       <c r="A417" t="s" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B417" s="9"/>
       <c r="C417" s="10"/>
@@ -6220,7 +6178,7 @@
     </row>
     <row r="418" ht="20.05" customHeight="1">
       <c r="A418" t="s" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B418" s="9"/>
       <c r="C418" s="10"/>
@@ -6231,7 +6189,7 @@
     </row>
     <row r="419" ht="20.05" customHeight="1">
       <c r="A419" t="s" s="8">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B419" s="9"/>
       <c r="C419" s="10"/>
@@ -6242,7 +6200,7 @@
     </row>
     <row r="420" ht="20.05" customHeight="1">
       <c r="A420" t="s" s="8">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="B420" s="9"/>
       <c r="C420" s="10"/>
@@ -6253,7 +6211,7 @@
     </row>
     <row r="421" ht="20.05" customHeight="1">
       <c r="A421" t="s" s="8">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B421" s="9"/>
       <c r="C421" s="10"/>
@@ -6264,7 +6222,7 @@
     </row>
     <row r="422" ht="20.05" customHeight="1">
       <c r="A422" t="s" s="8">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B422" s="9"/>
       <c r="C422" s="10"/>
@@ -6275,7 +6233,7 @@
     </row>
     <row r="423" ht="20.05" customHeight="1">
       <c r="A423" t="s" s="8">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B423" s="9"/>
       <c r="C423" s="10"/>
@@ -6286,7 +6244,7 @@
     </row>
     <row r="424" ht="20.05" customHeight="1">
       <c r="A424" t="s" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B424" s="9"/>
       <c r="C424" s="10"/>
@@ -6297,7 +6255,7 @@
     </row>
     <row r="425" ht="20.05" customHeight="1">
       <c r="A425" t="s" s="8">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B425" s="9"/>
       <c r="C425" s="10"/>
@@ -6308,7 +6266,7 @@
     </row>
     <row r="426" ht="20.05" customHeight="1">
       <c r="A426" t="s" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B426" s="9"/>
       <c r="C426" s="10"/>
@@ -6319,7 +6277,7 @@
     </row>
     <row r="427" ht="20.05" customHeight="1">
       <c r="A427" t="s" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B427" s="9"/>
       <c r="C427" s="10"/>
@@ -6330,7 +6288,7 @@
     </row>
     <row r="428" ht="20.05" customHeight="1">
       <c r="A428" t="s" s="8">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B428" s="9"/>
       <c r="C428" s="10"/>
@@ -6341,7 +6299,7 @@
     </row>
     <row r="429" ht="20.05" customHeight="1">
       <c r="A429" t="s" s="8">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B429" s="9"/>
       <c r="C429" s="10"/>
@@ -6352,7 +6310,7 @@
     </row>
     <row r="430" ht="20.05" customHeight="1">
       <c r="A430" t="s" s="8">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="B430" s="9"/>
       <c r="C430" s="10"/>
@@ -6363,7 +6321,7 @@
     </row>
     <row r="431" ht="20.05" customHeight="1">
       <c r="A431" t="s" s="8">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="B431" s="9"/>
       <c r="C431" s="10"/>
@@ -6374,7 +6332,7 @@
     </row>
     <row r="432" ht="20.05" customHeight="1">
       <c r="A432" t="s" s="8">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="B432" s="9"/>
       <c r="C432" s="10"/>
@@ -6396,7 +6354,7 @@
     </row>
     <row r="434" ht="20.05" customHeight="1">
       <c r="A434" t="s" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B434" s="9"/>
       <c r="C434" s="10"/>
@@ -6407,7 +6365,7 @@
     </row>
     <row r="435" ht="20.05" customHeight="1">
       <c r="A435" t="s" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B435" s="9"/>
       <c r="C435" s="10"/>
@@ -6418,7 +6376,7 @@
     </row>
     <row r="436" ht="20.05" customHeight="1">
       <c r="A436" t="s" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B436" s="9"/>
       <c r="C436" s="10"/>
@@ -6429,7 +6387,7 @@
     </row>
     <row r="437" ht="20.05" customHeight="1">
       <c r="A437" t="s" s="8">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B437" s="9"/>
       <c r="C437" s="10"/>
@@ -6440,7 +6398,7 @@
     </row>
     <row r="438" ht="20.05" customHeight="1">
       <c r="A438" t="s" s="8">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B438" s="9"/>
       <c r="C438" s="10"/>
@@ -6451,7 +6409,7 @@
     </row>
     <row r="439" ht="20.05" customHeight="1">
       <c r="A439" t="s" s="8">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="B439" s="9"/>
       <c r="C439" s="10"/>
@@ -6462,7 +6420,7 @@
     </row>
     <row r="440" ht="20.05" customHeight="1">
       <c r="A440" t="s" s="8">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B440" s="9"/>
       <c r="C440" s="10"/>
@@ -6473,7 +6431,7 @@
     </row>
     <row r="441" ht="20.05" customHeight="1">
       <c r="A441" t="s" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B441" s="9"/>
       <c r="C441" s="10"/>
@@ -6484,7 +6442,7 @@
     </row>
     <row r="442" ht="20.05" customHeight="1">
       <c r="A442" t="s" s="8">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B442" s="9"/>
       <c r="C442" s="10"/>
@@ -6495,7 +6453,7 @@
     </row>
     <row r="443" ht="20.05" customHeight="1">
       <c r="A443" t="s" s="8">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B443" s="9"/>
       <c r="C443" s="10"/>
@@ -6506,7 +6464,7 @@
     </row>
     <row r="444" ht="20.05" customHeight="1">
       <c r="A444" t="s" s="8">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="B444" s="9"/>
       <c r="C444" s="10"/>
@@ -6517,7 +6475,7 @@
     </row>
     <row r="445" ht="20.05" customHeight="1">
       <c r="A445" t="s" s="8">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="B445" s="9"/>
       <c r="C445" s="10"/>
@@ -6528,7 +6486,7 @@
     </row>
     <row r="446" ht="20.05" customHeight="1">
       <c r="A446" t="s" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B446" s="9"/>
       <c r="C446" s="10"/>
@@ -6539,7 +6497,7 @@
     </row>
     <row r="447" ht="20.05" customHeight="1">
       <c r="A447" t="s" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B447" s="9"/>
       <c r="C447" s="10"/>
@@ -6550,7 +6508,7 @@
     </row>
     <row r="448" ht="20.05" customHeight="1">
       <c r="A448" t="s" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B448" s="9"/>
       <c r="C448" s="10"/>
@@ -6561,7 +6519,7 @@
     </row>
     <row r="449" ht="20.05" customHeight="1">
       <c r="A449" t="s" s="8">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B449" s="9"/>
       <c r="C449" s="10"/>
@@ -6572,7 +6530,7 @@
     </row>
     <row r="450" ht="20.05" customHeight="1">
       <c r="A450" t="s" s="8">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B450" s="9"/>
       <c r="C450" s="10"/>
@@ -6583,7 +6541,7 @@
     </row>
     <row r="451" ht="20.05" customHeight="1">
       <c r="A451" t="s" s="8">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B451" s="9"/>
       <c r="C451" s="10"/>
@@ -6594,7 +6552,7 @@
     </row>
     <row r="452" ht="20.05" customHeight="1">
       <c r="A452" t="s" s="8">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B452" s="9"/>
       <c r="C452" s="10"/>
@@ -6605,7 +6563,7 @@
     </row>
     <row r="453" ht="20.05" customHeight="1">
       <c r="A453" t="s" s="8">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B453" s="9"/>
       <c r="C453" s="10"/>
@@ -6616,7 +6574,7 @@
     </row>
     <row r="454" ht="20.05" customHeight="1">
       <c r="A454" t="s" s="8">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B454" s="9"/>
       <c r="C454" s="10"/>
@@ -6627,7 +6585,7 @@
     </row>
     <row r="455" ht="20.05" customHeight="1">
       <c r="A455" t="s" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B455" s="9"/>
       <c r="C455" s="10"/>
@@ -6638,7 +6596,7 @@
     </row>
     <row r="456" ht="20.05" customHeight="1">
       <c r="A456" t="s" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B456" s="9"/>
       <c r="C456" s="10"/>
@@ -6649,7 +6607,7 @@
     </row>
     <row r="457" ht="20.05" customHeight="1">
       <c r="A457" t="s" s="8">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="B457" s="9"/>
       <c r="C457" s="10"/>
@@ -6660,7 +6618,7 @@
     </row>
     <row r="458" ht="20.05" customHeight="1">
       <c r="A458" t="s" s="8">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="B458" s="9"/>
       <c r="C458" s="10"/>
@@ -6671,7 +6629,7 @@
     </row>
     <row r="459" ht="20.05" customHeight="1">
       <c r="A459" t="s" s="8">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B459" s="9"/>
       <c r="C459" s="10"/>
@@ -6682,7 +6640,7 @@
     </row>
     <row r="460" ht="20.05" customHeight="1">
       <c r="A460" t="s" s="8">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B460" s="9"/>
       <c r="C460" s="10"/>
@@ -6693,7 +6651,7 @@
     </row>
     <row r="461" ht="20.05" customHeight="1">
       <c r="A461" t="s" s="8">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B461" s="9"/>
       <c r="C461" s="10"/>
@@ -6704,7 +6662,7 @@
     </row>
     <row r="462" ht="20.05" customHeight="1">
       <c r="A462" t="s" s="8">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B462" s="9"/>
       <c r="C462" s="10"/>
@@ -6715,7 +6673,7 @@
     </row>
     <row r="463" ht="20.05" customHeight="1">
       <c r="A463" t="s" s="8">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B463" s="9"/>
       <c r="C463" s="10"/>
@@ -6726,7 +6684,7 @@
     </row>
     <row r="464" ht="20.05" customHeight="1">
       <c r="A464" t="s" s="8">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B464" s="9"/>
       <c r="C464" s="10"/>
@@ -6737,7 +6695,7 @@
     </row>
     <row r="465" ht="20.05" customHeight="1">
       <c r="A465" t="s" s="8">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B465" s="9"/>
       <c r="C465" s="10"/>
@@ -6748,7 +6706,7 @@
     </row>
     <row r="466" ht="20.05" customHeight="1">
       <c r="A466" t="s" s="8">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="B466" s="9"/>
       <c r="C466" s="10"/>
@@ -6759,7 +6717,7 @@
     </row>
     <row r="467" ht="20.05" customHeight="1">
       <c r="A467" t="s" s="8">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="B467" s="9"/>
       <c r="C467" s="10"/>
@@ -6770,7 +6728,7 @@
     </row>
     <row r="468" ht="20.05" customHeight="1">
       <c r="A468" t="s" s="8">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B468" s="9"/>
       <c r="C468" s="10"/>
@@ -6781,7 +6739,7 @@
     </row>
     <row r="469" ht="20.05" customHeight="1">
       <c r="A469" t="s" s="8">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B469" s="9"/>
       <c r="C469" s="10"/>
@@ -6791,9 +6749,7 @@
       <c r="G469" s="10"/>
     </row>
     <row r="470" ht="20.05" customHeight="1">
-      <c r="A470" t="s" s="8">
-        <v>68</v>
-      </c>
+      <c r="A470" s="8"/>
       <c r="B470" s="9"/>
       <c r="C470" s="10"/>
       <c r="D470" s="10"/>
@@ -6802,9 +6758,7 @@
       <c r="G470" s="10"/>
     </row>
     <row r="471" ht="20.05" customHeight="1">
-      <c r="A471" t="s" s="8">
-        <v>79</v>
-      </c>
+      <c r="A471" s="8"/>
       <c r="B471" s="9"/>
       <c r="C471" s="10"/>
       <c r="D471" s="10"/>
@@ -6813,9 +6767,7 @@
       <c r="G471" s="10"/>
     </row>
     <row r="472" ht="20.05" customHeight="1">
-      <c r="A472" t="s" s="8">
-        <v>70</v>
-      </c>
+      <c r="A472" s="8"/>
       <c r="B472" s="9"/>
       <c r="C472" s="10"/>
       <c r="D472" s="10"/>
@@ -6824,9 +6776,7 @@
       <c r="G472" s="10"/>
     </row>
     <row r="473" ht="20.05" customHeight="1">
-      <c r="A473" t="s" s="8">
-        <v>70</v>
-      </c>
+      <c r="A473" s="8"/>
       <c r="B473" s="9"/>
       <c r="C473" s="10"/>
       <c r="D473" s="10"/>
@@ -6835,9 +6785,7 @@
       <c r="G473" s="10"/>
     </row>
     <row r="474" ht="20.05" customHeight="1">
-      <c r="A474" t="s" s="8">
-        <v>70</v>
-      </c>
+      <c r="A474" s="8"/>
       <c r="B474" s="9"/>
       <c r="C474" s="10"/>
       <c r="D474" s="10"/>
@@ -6846,9 +6794,7 @@
       <c r="G474" s="10"/>
     </row>
     <row r="475" ht="20.05" customHeight="1">
-      <c r="A475" t="s" s="8">
-        <v>70</v>
-      </c>
+      <c r="A475" s="8"/>
       <c r="B475" s="9"/>
       <c r="C475" s="10"/>
       <c r="D475" s="10"/>
@@ -6857,9 +6803,7 @@
       <c r="G475" s="10"/>
     </row>
     <row r="476" ht="20.05" customHeight="1">
-      <c r="A476" t="s" s="8">
-        <v>70</v>
-      </c>
+      <c r="A476" s="8"/>
       <c r="B476" s="9"/>
       <c r="C476" s="10"/>
       <c r="D476" s="10"/>
@@ -6868,9 +6812,7 @@
       <c r="G476" s="10"/>
     </row>
     <row r="477" ht="20.05" customHeight="1">
-      <c r="A477" t="s" s="8">
-        <v>61</v>
-      </c>
+      <c r="A477" s="8"/>
       <c r="B477" s="9"/>
       <c r="C477" s="10"/>
       <c r="D477" s="10"/>
@@ -6879,9 +6821,7 @@
       <c r="G477" s="10"/>
     </row>
     <row r="478" ht="20.05" customHeight="1">
-      <c r="A478" t="s" s="8">
-        <v>80</v>
-      </c>
+      <c r="A478" s="8"/>
       <c r="B478" s="9"/>
       <c r="C478" s="10"/>
       <c r="D478" s="10"/>
@@ -6890,9 +6830,7 @@
       <c r="G478" s="10"/>
     </row>
     <row r="479" ht="20.05" customHeight="1">
-      <c r="A479" t="s" s="8">
-        <v>67</v>
-      </c>
+      <c r="A479" s="8"/>
       <c r="B479" s="9"/>
       <c r="C479" s="10"/>
       <c r="D479" s="10"/>
@@ -6901,9 +6839,7 @@
       <c r="G479" s="10"/>
     </row>
     <row r="480" ht="20.05" customHeight="1">
-      <c r="A480" t="s" s="8">
-        <v>67</v>
-      </c>
+      <c r="A480" s="8"/>
       <c r="B480" s="9"/>
       <c r="C480" s="10"/>
       <c r="D480" s="10"/>
@@ -6912,9 +6848,7 @@
       <c r="G480" s="10"/>
     </row>
     <row r="481" ht="20.05" customHeight="1">
-      <c r="A481" t="s" s="8">
-        <v>64</v>
-      </c>
+      <c r="A481" s="8"/>
       <c r="B481" s="9"/>
       <c r="C481" s="10"/>
       <c r="D481" s="10"/>
@@ -6923,9 +6857,7 @@
       <c r="G481" s="10"/>
     </row>
     <row r="482" ht="20.05" customHeight="1">
-      <c r="A482" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A482" s="8"/>
       <c r="B482" s="9"/>
       <c r="C482" s="10"/>
       <c r="D482" s="10"/>
@@ -6934,9 +6866,7 @@
       <c r="G482" s="10"/>
     </row>
     <row r="483" ht="20.05" customHeight="1">
-      <c r="A483" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A483" s="8"/>
       <c r="B483" s="9"/>
       <c r="C483" s="10"/>
       <c r="D483" s="10"/>
@@ -6945,9 +6875,7 @@
       <c r="G483" s="10"/>
     </row>
     <row r="484" ht="20.05" customHeight="1">
-      <c r="A484" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A484" s="8"/>
       <c r="B484" s="9"/>
       <c r="C484" s="10"/>
       <c r="D484" s="10"/>
@@ -6956,9 +6884,7 @@
       <c r="G484" s="10"/>
     </row>
     <row r="485" ht="20.05" customHeight="1">
-      <c r="A485" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A485" s="8"/>
       <c r="B485" s="9"/>
       <c r="C485" s="10"/>
       <c r="D485" s="10"/>
@@ -6967,9 +6893,7 @@
       <c r="G485" s="10"/>
     </row>
     <row r="486" ht="20.05" customHeight="1">
-      <c r="A486" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A486" s="8"/>
       <c r="B486" s="9"/>
       <c r="C486" s="10"/>
       <c r="D486" s="10"/>
@@ -6978,9 +6902,7 @@
       <c r="G486" s="10"/>
     </row>
     <row r="487" ht="20.05" customHeight="1">
-      <c r="A487" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A487" s="8"/>
       <c r="B487" s="9"/>
       <c r="C487" s="10"/>
       <c r="D487" s="10"/>
@@ -6989,9 +6911,7 @@
       <c r="G487" s="10"/>
     </row>
     <row r="488" ht="20.05" customHeight="1">
-      <c r="A488" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A488" s="8"/>
       <c r="B488" s="9"/>
       <c r="C488" s="10"/>
       <c r="D488" s="10"/>
@@ -7000,9 +6920,7 @@
       <c r="G488" s="10"/>
     </row>
     <row r="489" ht="20.05" customHeight="1">
-      <c r="A489" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A489" s="8"/>
       <c r="B489" s="9"/>
       <c r="C489" s="10"/>
       <c r="D489" s="10"/>
@@ -7011,9 +6929,7 @@
       <c r="G489" s="10"/>
     </row>
     <row r="490" ht="20.05" customHeight="1">
-      <c r="A490" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A490" s="8"/>
       <c r="B490" s="9"/>
       <c r="C490" s="10"/>
       <c r="D490" s="10"/>
@@ -7022,9 +6938,7 @@
       <c r="G490" s="10"/>
     </row>
     <row r="491" ht="20.05" customHeight="1">
-      <c r="A491" t="s" s="8">
-        <v>82</v>
-      </c>
+      <c r="A491" s="8"/>
       <c r="B491" s="9"/>
       <c r="C491" s="10"/>
       <c r="D491" s="10"/>
@@ -7033,9 +6947,7 @@
       <c r="G491" s="10"/>
     </row>
     <row r="492" ht="20.05" customHeight="1">
-      <c r="A492" t="s" s="8">
-        <v>82</v>
-      </c>
+      <c r="A492" s="8"/>
       <c r="B492" s="9"/>
       <c r="C492" s="10"/>
       <c r="D492" s="10"/>
@@ -7044,9 +6956,7 @@
       <c r="G492" s="10"/>
     </row>
     <row r="493" ht="20.05" customHeight="1">
-      <c r="A493" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A493" s="8"/>
       <c r="B493" s="9"/>
       <c r="C493" s="10"/>
       <c r="D493" s="10"/>
@@ -7055,9 +6965,7 @@
       <c r="G493" s="10"/>
     </row>
     <row r="494" ht="20.05" customHeight="1">
-      <c r="A494" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A494" s="8"/>
       <c r="B494" s="9"/>
       <c r="C494" s="10"/>
       <c r="D494" s="10"/>
@@ -7066,9 +6974,7 @@
       <c r="G494" s="10"/>
     </row>
     <row r="495" ht="20.05" customHeight="1">
-      <c r="A495" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A495" s="8"/>
       <c r="B495" s="9"/>
       <c r="C495" s="10"/>
       <c r="D495" s="10"/>
@@ -7077,9 +6983,7 @@
       <c r="G495" s="10"/>
     </row>
     <row r="496" ht="20.05" customHeight="1">
-      <c r="A496" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A496" s="8"/>
       <c r="B496" s="9"/>
       <c r="C496" s="10"/>
       <c r="D496" s="10"/>
@@ -7088,9 +6992,7 @@
       <c r="G496" s="10"/>
     </row>
     <row r="497" ht="20.05" customHeight="1">
-      <c r="A497" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A497" s="8"/>
       <c r="B497" s="9"/>
       <c r="C497" s="10"/>
       <c r="D497" s="10"/>
@@ -7099,9 +7001,7 @@
       <c r="G497" s="10"/>
     </row>
     <row r="498" ht="20.05" customHeight="1">
-      <c r="A498" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A498" s="8"/>
       <c r="B498" s="9"/>
       <c r="C498" s="10"/>
       <c r="D498" s="10"/>
@@ -7110,9 +7010,7 @@
       <c r="G498" s="10"/>
     </row>
     <row r="499" ht="20.05" customHeight="1">
-      <c r="A499" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A499" s="8"/>
       <c r="B499" s="9"/>
       <c r="C499" s="10"/>
       <c r="D499" s="10"/>
@@ -7121,9 +7019,7 @@
       <c r="G499" s="10"/>
     </row>
     <row r="500" ht="20.05" customHeight="1">
-      <c r="A500" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A500" s="8"/>
       <c r="B500" s="9"/>
       <c r="C500" s="10"/>
       <c r="D500" s="10"/>
@@ -7132,9 +7028,7 @@
       <c r="G500" s="10"/>
     </row>
     <row r="501" ht="20.05" customHeight="1">
-      <c r="A501" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A501" s="8"/>
       <c r="B501" s="9"/>
       <c r="C501" s="10"/>
       <c r="D501" s="10"/>
@@ -7143,9 +7037,7 @@
       <c r="G501" s="10"/>
     </row>
     <row r="502" ht="20.05" customHeight="1">
-      <c r="A502" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A502" s="8"/>
       <c r="B502" s="9"/>
       <c r="C502" s="10"/>
       <c r="D502" s="10"/>
@@ -7154,9 +7046,7 @@
       <c r="G502" s="10"/>
     </row>
     <row r="503" ht="20.05" customHeight="1">
-      <c r="A503" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A503" s="8"/>
       <c r="B503" s="9"/>
       <c r="C503" s="10"/>
       <c r="D503" s="10"/>
@@ -7165,9 +7055,7 @@
       <c r="G503" s="10"/>
     </row>
     <row r="504" ht="20.05" customHeight="1">
-      <c r="A504" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A504" s="8"/>
       <c r="B504" s="9"/>
       <c r="C504" s="10"/>
       <c r="D504" s="10"/>
@@ -7176,9 +7064,7 @@
       <c r="G504" s="10"/>
     </row>
     <row r="505" ht="20.05" customHeight="1">
-      <c r="A505" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A505" s="8"/>
       <c r="B505" s="9"/>
       <c r="C505" s="10"/>
       <c r="D505" s="10"/>
@@ -7187,9 +7073,7 @@
       <c r="G505" s="10"/>
     </row>
     <row r="506" ht="20.05" customHeight="1">
-      <c r="A506" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A506" s="8"/>
       <c r="B506" s="9"/>
       <c r="C506" s="10"/>
       <c r="D506" s="10"/>
@@ -7198,9 +7082,7 @@
       <c r="G506" s="10"/>
     </row>
     <row r="507" ht="20.05" customHeight="1">
-      <c r="A507" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A507" s="8"/>
       <c r="B507" s="9"/>
       <c r="C507" s="10"/>
       <c r="D507" s="10"/>
@@ -7209,9 +7091,7 @@
       <c r="G507" s="10"/>
     </row>
     <row r="508" ht="20.05" customHeight="1">
-      <c r="A508" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A508" s="8"/>
       <c r="B508" s="9"/>
       <c r="C508" s="10"/>
       <c r="D508" s="10"/>
@@ -7220,9 +7100,7 @@
       <c r="G508" s="10"/>
     </row>
     <row r="509" ht="20.05" customHeight="1">
-      <c r="A509" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A509" s="8"/>
       <c r="B509" s="9"/>
       <c r="C509" s="10"/>
       <c r="D509" s="10"/>
@@ -7231,9 +7109,7 @@
       <c r="G509" s="10"/>
     </row>
     <row r="510" ht="20.05" customHeight="1">
-      <c r="A510" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A510" s="8"/>
       <c r="B510" s="9"/>
       <c r="C510" s="10"/>
       <c r="D510" s="10"/>
@@ -7242,9 +7118,7 @@
       <c r="G510" s="10"/>
     </row>
     <row r="511" ht="20.05" customHeight="1">
-      <c r="A511" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A511" s="8"/>
       <c r="B511" s="9"/>
       <c r="C511" s="10"/>
       <c r="D511" s="10"/>
@@ -7253,9 +7127,7 @@
       <c r="G511" s="10"/>
     </row>
     <row r="512" ht="20.05" customHeight="1">
-      <c r="A512" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A512" s="8"/>
       <c r="B512" s="9"/>
       <c r="C512" s="10"/>
       <c r="D512" s="10"/>
@@ -7264,9 +7136,7 @@
       <c r="G512" s="10"/>
     </row>
     <row r="513" ht="20.05" customHeight="1">
-      <c r="A513" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A513" s="8"/>
       <c r="B513" s="9"/>
       <c r="C513" s="10"/>
       <c r="D513" s="10"/>
@@ -7275,9 +7145,7 @@
       <c r="G513" s="10"/>
     </row>
     <row r="514" ht="20.05" customHeight="1">
-      <c r="A514" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A514" s="8"/>
       <c r="B514" s="9"/>
       <c r="C514" s="10"/>
       <c r="D514" s="10"/>
@@ -7286,9 +7154,7 @@
       <c r="G514" s="10"/>
     </row>
     <row r="515" ht="20.05" customHeight="1">
-      <c r="A515" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A515" s="8"/>
       <c r="B515" s="9"/>
       <c r="C515" s="10"/>
       <c r="D515" s="10"/>
@@ -7297,9 +7163,7 @@
       <c r="G515" s="10"/>
     </row>
     <row r="516" ht="20.05" customHeight="1">
-      <c r="A516" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A516" s="8"/>
       <c r="B516" s="9"/>
       <c r="C516" s="10"/>
       <c r="D516" s="10"/>
@@ -7308,9 +7172,7 @@
       <c r="G516" s="10"/>
     </row>
     <row r="517" ht="20.05" customHeight="1">
-      <c r="A517" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A517" s="8"/>
       <c r="B517" s="9"/>
       <c r="C517" s="10"/>
       <c r="D517" s="10"/>
@@ -7319,9 +7181,7 @@
       <c r="G517" s="10"/>
     </row>
     <row r="518" ht="20.05" customHeight="1">
-      <c r="A518" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A518" s="8"/>
       <c r="B518" s="9"/>
       <c r="C518" s="10"/>
       <c r="D518" s="10"/>
@@ -7330,9 +7190,7 @@
       <c r="G518" s="10"/>
     </row>
     <row r="519" ht="20.05" customHeight="1">
-      <c r="A519" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A519" s="8"/>
       <c r="B519" s="9"/>
       <c r="C519" s="10"/>
       <c r="D519" s="10"/>
@@ -7341,9 +7199,7 @@
       <c r="G519" s="10"/>
     </row>
     <row r="520" ht="20.05" customHeight="1">
-      <c r="A520" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A520" s="8"/>
       <c r="B520" s="9"/>
       <c r="C520" s="10"/>
       <c r="D520" s="10"/>
@@ -7352,9 +7208,7 @@
       <c r="G520" s="10"/>
     </row>
     <row r="521" ht="20.05" customHeight="1">
-      <c r="A521" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A521" s="8"/>
       <c r="B521" s="9"/>
       <c r="C521" s="10"/>
       <c r="D521" s="10"/>
@@ -7363,9 +7217,7 @@
       <c r="G521" s="10"/>
     </row>
     <row r="522" ht="20.05" customHeight="1">
-      <c r="A522" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A522" s="8"/>
       <c r="B522" s="9"/>
       <c r="C522" s="10"/>
       <c r="D522" s="10"/>
@@ -7374,9 +7226,7 @@
       <c r="G522" s="10"/>
     </row>
     <row r="523" ht="20.05" customHeight="1">
-      <c r="A523" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A523" s="8"/>
       <c r="B523" s="9"/>
       <c r="C523" s="10"/>
       <c r="D523" s="10"/>
@@ -7385,9 +7235,7 @@
       <c r="G523" s="10"/>
     </row>
     <row r="524" ht="20.05" customHeight="1">
-      <c r="A524" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A524" s="8"/>
       <c r="B524" s="9"/>
       <c r="C524" s="10"/>
       <c r="D524" s="10"/>
@@ -7396,9 +7244,7 @@
       <c r="G524" s="10"/>
     </row>
     <row r="525" ht="20.05" customHeight="1">
-      <c r="A525" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A525" s="8"/>
       <c r="B525" s="9"/>
       <c r="C525" s="10"/>
       <c r="D525" s="10"/>
@@ -7407,9 +7253,7 @@
       <c r="G525" s="10"/>
     </row>
     <row r="526" ht="20.05" customHeight="1">
-      <c r="A526" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A526" s="8"/>
       <c r="B526" s="9"/>
       <c r="C526" s="10"/>
       <c r="D526" s="10"/>
@@ -7418,9 +7262,7 @@
       <c r="G526" s="10"/>
     </row>
     <row r="527" ht="20.05" customHeight="1">
-      <c r="A527" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A527" s="8"/>
       <c r="B527" s="9"/>
       <c r="C527" s="10"/>
       <c r="D527" s="10"/>
@@ -7429,9 +7271,7 @@
       <c r="G527" s="10"/>
     </row>
     <row r="528" ht="20.05" customHeight="1">
-      <c r="A528" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A528" s="8"/>
       <c r="B528" s="9"/>
       <c r="C528" s="10"/>
       <c r="D528" s="10"/>
@@ -7440,9 +7280,7 @@
       <c r="G528" s="10"/>
     </row>
     <row r="529" ht="20.05" customHeight="1">
-      <c r="A529" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A529" s="8"/>
       <c r="B529" s="9"/>
       <c r="C529" s="10"/>
       <c r="D529" s="10"/>
@@ -7451,9 +7289,7 @@
       <c r="G529" s="10"/>
     </row>
     <row r="530" ht="20.05" customHeight="1">
-      <c r="A530" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A530" s="8"/>
       <c r="B530" s="9"/>
       <c r="C530" s="10"/>
       <c r="D530" s="10"/>
@@ -7462,9 +7298,7 @@
       <c r="G530" s="10"/>
     </row>
     <row r="531" ht="20.05" customHeight="1">
-      <c r="A531" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A531" s="8"/>
       <c r="B531" s="9"/>
       <c r="C531" s="10"/>
       <c r="D531" s="10"/>
@@ -7473,9 +7307,7 @@
       <c r="G531" s="10"/>
     </row>
     <row r="532" ht="20.05" customHeight="1">
-      <c r="A532" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A532" s="8"/>
       <c r="B532" s="9"/>
       <c r="C532" s="10"/>
       <c r="D532" s="10"/>
@@ -7484,9 +7316,7 @@
       <c r="G532" s="10"/>
     </row>
     <row r="533" ht="20.05" customHeight="1">
-      <c r="A533" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A533" s="8"/>
       <c r="B533" s="9"/>
       <c r="C533" s="10"/>
       <c r="D533" s="10"/>
@@ -7495,9 +7325,7 @@
       <c r="G533" s="10"/>
     </row>
     <row r="534" ht="20.05" customHeight="1">
-      <c r="A534" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A534" s="8"/>
       <c r="B534" s="9"/>
       <c r="C534" s="10"/>
       <c r="D534" s="10"/>
@@ -7506,9 +7334,7 @@
       <c r="G534" s="10"/>
     </row>
     <row r="535" ht="20.05" customHeight="1">
-      <c r="A535" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A535" s="8"/>
       <c r="B535" s="9"/>
       <c r="C535" s="10"/>
       <c r="D535" s="10"/>
@@ -7517,9 +7343,7 @@
       <c r="G535" s="10"/>
     </row>
     <row r="536" ht="20.05" customHeight="1">
-      <c r="A536" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A536" s="8"/>
       <c r="B536" s="9"/>
       <c r="C536" s="10"/>
       <c r="D536" s="10"/>
@@ -7528,9 +7352,7 @@
       <c r="G536" s="10"/>
     </row>
     <row r="537" ht="20.05" customHeight="1">
-      <c r="A537" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A537" s="8"/>
       <c r="B537" s="9"/>
       <c r="C537" s="10"/>
       <c r="D537" s="10"/>
@@ -7539,9 +7361,7 @@
       <c r="G537" s="10"/>
     </row>
     <row r="538" ht="20.05" customHeight="1">
-      <c r="A538" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A538" s="8"/>
       <c r="B538" s="9"/>
       <c r="C538" s="10"/>
       <c r="D538" s="10"/>
@@ -7550,9 +7370,7 @@
       <c r="G538" s="10"/>
     </row>
     <row r="539" ht="20.05" customHeight="1">
-      <c r="A539" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A539" s="8"/>
       <c r="B539" s="9"/>
       <c r="C539" s="10"/>
       <c r="D539" s="10"/>
@@ -7561,9 +7379,7 @@
       <c r="G539" s="10"/>
     </row>
     <row r="540" ht="20.05" customHeight="1">
-      <c r="A540" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A540" s="8"/>
       <c r="B540" s="9"/>
       <c r="C540" s="10"/>
       <c r="D540" s="10"/>
@@ -7572,9 +7388,7 @@
       <c r="G540" s="10"/>
     </row>
     <row r="541" ht="20.05" customHeight="1">
-      <c r="A541" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A541" s="8"/>
       <c r="B541" s="9"/>
       <c r="C541" s="10"/>
       <c r="D541" s="10"/>
@@ -7583,9 +7397,7 @@
       <c r="G541" s="10"/>
     </row>
     <row r="542" ht="20.05" customHeight="1">
-      <c r="A542" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A542" s="8"/>
       <c r="B542" s="9"/>
       <c r="C542" s="10"/>
       <c r="D542" s="10"/>
@@ -7594,9 +7406,7 @@
       <c r="G542" s="10"/>
     </row>
     <row r="543" ht="20.05" customHeight="1">
-      <c r="A543" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A543" s="8"/>
       <c r="B543" s="9"/>
       <c r="C543" s="10"/>
       <c r="D543" s="10"/>
@@ -7605,9 +7415,7 @@
       <c r="G543" s="10"/>
     </row>
     <row r="544" ht="20.05" customHeight="1">
-      <c r="A544" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A544" s="8"/>
       <c r="B544" s="9"/>
       <c r="C544" s="10"/>
       <c r="D544" s="10"/>
@@ -7616,9 +7424,7 @@
       <c r="G544" s="10"/>
     </row>
     <row r="545" ht="20.05" customHeight="1">
-      <c r="A545" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A545" s="8"/>
       <c r="B545" s="9"/>
       <c r="C545" s="10"/>
       <c r="D545" s="10"/>
@@ -7627,9 +7433,7 @@
       <c r="G545" s="10"/>
     </row>
     <row r="546" ht="20.05" customHeight="1">
-      <c r="A546" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A546" s="8"/>
       <c r="B546" s="9"/>
       <c r="C546" s="10"/>
       <c r="D546" s="10"/>
@@ -7638,9 +7442,7 @@
       <c r="G546" s="10"/>
     </row>
     <row r="547" ht="20.05" customHeight="1">
-      <c r="A547" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A547" s="8"/>
       <c r="B547" s="9"/>
       <c r="C547" s="10"/>
       <c r="D547" s="10"/>
@@ -7649,9 +7451,7 @@
       <c r="G547" s="10"/>
     </row>
     <row r="548" ht="20.05" customHeight="1">
-      <c r="A548" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A548" s="8"/>
       <c r="B548" s="9"/>
       <c r="C548" s="10"/>
       <c r="D548" s="10"/>
@@ -7660,9 +7460,7 @@
       <c r="G548" s="10"/>
     </row>
     <row r="549" ht="20.05" customHeight="1">
-      <c r="A549" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A549" s="8"/>
       <c r="B549" s="9"/>
       <c r="C549" s="10"/>
       <c r="D549" s="10"/>
@@ -7671,9 +7469,7 @@
       <c r="G549" s="10"/>
     </row>
     <row r="550" ht="20.05" customHeight="1">
-      <c r="A550" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A550" s="8"/>
       <c r="B550" s="9"/>
       <c r="C550" s="10"/>
       <c r="D550" s="10"/>
@@ -7682,9 +7478,7 @@
       <c r="G550" s="10"/>
     </row>
     <row r="551" ht="20.05" customHeight="1">
-      <c r="A551" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A551" s="8"/>
       <c r="B551" s="9"/>
       <c r="C551" s="10"/>
       <c r="D551" s="10"/>
@@ -7693,9 +7487,7 @@
       <c r="G551" s="10"/>
     </row>
     <row r="552" ht="20.05" customHeight="1">
-      <c r="A552" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A552" s="8"/>
       <c r="B552" s="9"/>
       <c r="C552" s="10"/>
       <c r="D552" s="10"/>
@@ -7704,9 +7496,7 @@
       <c r="G552" s="10"/>
     </row>
     <row r="553" ht="20.05" customHeight="1">
-      <c r="A553" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A553" s="8"/>
       <c r="B553" s="9"/>
       <c r="C553" s="10"/>
       <c r="D553" s="10"/>
@@ -7715,9 +7505,7 @@
       <c r="G553" s="10"/>
     </row>
     <row r="554" ht="20.05" customHeight="1">
-      <c r="A554" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A554" s="8"/>
       <c r="B554" s="9"/>
       <c r="C554" s="10"/>
       <c r="D554" s="10"/>
@@ -7726,9 +7514,7 @@
       <c r="G554" s="10"/>
     </row>
     <row r="555" ht="20.05" customHeight="1">
-      <c r="A555" t="s" s="8">
-        <v>81</v>
-      </c>
+      <c r="A555" s="8"/>
       <c r="B555" s="9"/>
       <c r="C555" s="10"/>
       <c r="D555" s="10"/>
@@ -7737,9 +7523,7 @@
       <c r="G555" s="10"/>
     </row>
     <row r="556" ht="20.05" customHeight="1">
-      <c r="A556" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A556" s="8"/>
       <c r="B556" s="9"/>
       <c r="C556" s="10"/>
       <c r="D556" s="10"/>
@@ -7748,9 +7532,7 @@
       <c r="G556" s="10"/>
     </row>
     <row r="557" ht="20.05" customHeight="1">
-      <c r="A557" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A557" s="8"/>
       <c r="B557" s="9"/>
       <c r="C557" s="10"/>
       <c r="D557" s="10"/>
@@ -7759,9 +7541,7 @@
       <c r="G557" s="10"/>
     </row>
     <row r="558" ht="20.05" customHeight="1">
-      <c r="A558" t="s" s="8">
-        <v>22</v>
-      </c>
+      <c r="A558" s="8"/>
       <c r="B558" s="9"/>
       <c r="C558" s="10"/>
       <c r="D558" s="10"/>
@@ -7770,9 +7550,7 @@
       <c r="G558" s="10"/>
     </row>
     <row r="559" ht="20.05" customHeight="1">
-      <c r="A559" t="s" s="8">
-        <v>1</v>
-      </c>
+      <c r="A559" s="8"/>
       <c r="B559" s="9"/>
       <c r="C559" s="10"/>
       <c r="D559" s="10"/>
@@ -7781,9 +7559,7 @@
       <c r="G559" s="10"/>
     </row>
     <row r="560" ht="20.05" customHeight="1">
-      <c r="A560" t="s" s="8">
-        <v>1</v>
-      </c>
+      <c r="A560" s="8"/>
       <c r="B560" s="9"/>
       <c r="C560" s="10"/>
       <c r="D560" s="10"/>
@@ -7792,9 +7568,7 @@
       <c r="G560" s="10"/>
     </row>
     <row r="561" ht="20.05" customHeight="1">
-      <c r="A561" t="s" s="8">
-        <v>1</v>
-      </c>
+      <c r="A561" s="8"/>
       <c r="B561" s="9"/>
       <c r="C561" s="10"/>
       <c r="D561" s="10"/>
@@ -7803,9 +7577,7 @@
       <c r="G561" s="10"/>
     </row>
     <row r="562" ht="20.05" customHeight="1">
-      <c r="A562" t="s" s="8">
-        <v>1</v>
-      </c>
+      <c r="A562" s="8"/>
       <c r="B562" s="9"/>
       <c r="C562" s="10"/>
       <c r="D562" s="10"/>
@@ -7814,9 +7586,7 @@
       <c r="G562" s="10"/>
     </row>
     <row r="563" ht="20.05" customHeight="1">
-      <c r="A563" t="s" s="8">
-        <v>1</v>
-      </c>
+      <c r="A563" s="8"/>
       <c r="B563" s="9"/>
       <c r="C563" s="10"/>
       <c r="D563" s="10"/>
@@ -7825,9 +7595,7 @@
       <c r="G563" s="10"/>
     </row>
     <row r="564" ht="20.05" customHeight="1">
-      <c r="A564" t="s" s="8">
-        <v>67</v>
-      </c>
+      <c r="A564" s="8"/>
       <c r="B564" s="9"/>
       <c r="C564" s="10"/>
       <c r="D564" s="10"/>
@@ -7836,9 +7604,7 @@
       <c r="G564" s="10"/>
     </row>
     <row r="565" ht="20.05" customHeight="1">
-      <c r="A565" t="s" s="8">
-        <v>83</v>
-      </c>
+      <c r="A565" s="8"/>
       <c r="B565" s="9"/>
       <c r="C565" s="10"/>
       <c r="D565" s="10"/>
@@ -7847,9 +7613,7 @@
       <c r="G565" s="10"/>
     </row>
     <row r="566" ht="20.05" customHeight="1">
-      <c r="A566" t="s" s="8">
-        <v>23</v>
-      </c>
+      <c r="A566" s="8"/>
       <c r="B566" s="9"/>
       <c r="C566" s="10"/>
       <c r="D566" s="10"/>
@@ -7858,9 +7622,7 @@
       <c r="G566" s="10"/>
     </row>
     <row r="567" ht="20.05" customHeight="1">
-      <c r="A567" t="s" s="8">
-        <v>51</v>
-      </c>
+      <c r="A567" s="8"/>
       <c r="B567" s="9"/>
       <c r="C567" s="10"/>
       <c r="D567" s="10"/>
@@ -7869,9 +7631,7 @@
       <c r="G567" s="10"/>
     </row>
     <row r="568" ht="20.05" customHeight="1">
-      <c r="A568" t="s" s="8">
-        <v>84</v>
-      </c>
+      <c r="A568" s="8"/>
       <c r="B568" s="9"/>
       <c r="C568" s="10"/>
       <c r="D568" s="10"/>
@@ -7880,9 +7640,7 @@
       <c r="G568" s="10"/>
     </row>
     <row r="569" ht="20.05" customHeight="1">
-      <c r="A569" t="s" s="8">
-        <v>51</v>
-      </c>
+      <c r="A569" s="8"/>
       <c r="B569" s="9"/>
       <c r="C569" s="10"/>
       <c r="D569" s="10"/>
@@ -7891,9 +7649,7 @@
       <c r="G569" s="10"/>
     </row>
     <row r="570" ht="20.05" customHeight="1">
-      <c r="A570" t="s" s="8">
-        <v>85</v>
-      </c>
+      <c r="A570" s="8"/>
       <c r="B570" s="9"/>
       <c r="C570" s="10"/>
       <c r="D570" s="10"/>
@@ -7902,9 +7658,7 @@
       <c r="G570" s="10"/>
     </row>
     <row r="571" ht="20.05" customHeight="1">
-      <c r="A571" t="s" s="8">
-        <v>23</v>
-      </c>
+      <c r="A571" s="8"/>
       <c r="B571" s="9"/>
       <c r="C571" s="10"/>
       <c r="D571" s="10"/>
@@ -7913,9 +7667,7 @@
       <c r="G571" s="10"/>
     </row>
     <row r="572" ht="20.05" customHeight="1">
-      <c r="A572" t="s" s="8">
-        <v>51</v>
-      </c>
+      <c r="A572" s="8"/>
       <c r="B572" s="9"/>
       <c r="C572" s="10"/>
       <c r="D572" s="10"/>
@@ -7924,9 +7676,7 @@
       <c r="G572" s="10"/>
     </row>
     <row r="573" ht="20.05" customHeight="1">
-      <c r="A573" t="s" s="8">
-        <v>24</v>
-      </c>
+      <c r="A573" s="8"/>
       <c r="B573" s="9"/>
       <c r="C573" s="10"/>
       <c r="D573" s="10"/>
@@ -7935,9 +7685,7 @@
       <c r="G573" s="10"/>
     </row>
     <row r="574" ht="20.05" customHeight="1">
-      <c r="A574" t="s" s="8">
-        <v>24</v>
-      </c>
+      <c r="A574" s="8"/>
       <c r="B574" s="9"/>
       <c r="C574" s="10"/>
       <c r="D574" s="10"/>
@@ -7946,9 +7694,7 @@
       <c r="G574" s="10"/>
     </row>
     <row r="575" ht="20.05" customHeight="1">
-      <c r="A575" t="s" s="8">
-        <v>49</v>
-      </c>
+      <c r="A575" s="8"/>
       <c r="B575" s="9"/>
       <c r="C575" s="10"/>
       <c r="D575" s="10"/>
@@ -7957,9 +7703,7 @@
       <c r="G575" s="10"/>
     </row>
     <row r="576" ht="20.05" customHeight="1">
-      <c r="A576" t="s" s="8">
-        <v>86</v>
-      </c>
+      <c r="A576" s="8"/>
       <c r="B576" s="9"/>
       <c r="C576" s="10"/>
       <c r="D576" s="10"/>
@@ -7968,9 +7712,7 @@
       <c r="G576" s="10"/>
     </row>
     <row r="577" ht="20.05" customHeight="1">
-      <c r="A577" t="s" s="8">
-        <v>24</v>
-      </c>
+      <c r="A577" s="8"/>
       <c r="B577" s="9"/>
       <c r="C577" s="10"/>
       <c r="D577" s="10"/>
@@ -7979,9 +7721,7 @@
       <c r="G577" s="10"/>
     </row>
     <row r="578" ht="20.05" customHeight="1">
-      <c r="A578" t="s" s="8">
-        <v>87</v>
-      </c>
+      <c r="A578" s="8"/>
       <c r="B578" s="9"/>
       <c r="C578" s="10"/>
       <c r="D578" s="10"/>
@@ -7990,9 +7730,7 @@
       <c r="G578" s="10"/>
     </row>
     <row r="579" ht="20.05" customHeight="1">
-      <c r="A579" t="s" s="8">
-        <v>30</v>
-      </c>
+      <c r="A579" s="8"/>
       <c r="B579" s="9"/>
       <c r="C579" s="10"/>
       <c r="D579" s="10"/>
@@ -8001,9 +7739,7 @@
       <c r="G579" s="10"/>
     </row>
     <row r="580" ht="20.05" customHeight="1">
-      <c r="A580" t="s" s="8">
-        <v>88</v>
-      </c>
+      <c r="A580" s="8"/>
       <c r="B580" s="9"/>
       <c r="C580" s="10"/>
       <c r="D580" s="10"/>
@@ -8012,9 +7748,7 @@
       <c r="G580" s="10"/>
     </row>
     <row r="581" ht="20.05" customHeight="1">
-      <c r="A581" t="s" s="8">
-        <v>51</v>
-      </c>
+      <c r="A581" s="8"/>
       <c r="B581" s="9"/>
       <c r="C581" s="10"/>
       <c r="D581" s="10"/>
@@ -8023,9 +7757,7 @@
       <c r="G581" s="10"/>
     </row>
     <row r="582" ht="20.05" customHeight="1">
-      <c r="A582" t="s" s="8">
-        <v>65</v>
-      </c>
+      <c r="A582" s="8"/>
       <c r="B582" s="9"/>
       <c r="C582" s="10"/>
       <c r="D582" s="10"/>
@@ -8034,9 +7766,7 @@
       <c r="G582" s="10"/>
     </row>
     <row r="583" ht="20.05" customHeight="1">
-      <c r="A583" t="s" s="8">
-        <v>65</v>
-      </c>
+      <c r="A583" s="8"/>
       <c r="B583" s="9"/>
       <c r="C583" s="10"/>
       <c r="D583" s="10"/>
@@ -8045,9 +7775,7 @@
       <c r="G583" s="10"/>
     </row>
     <row r="584" ht="20.05" customHeight="1">
-      <c r="A584" t="s" s="8">
-        <v>24</v>
-      </c>
+      <c r="A584" s="8"/>
       <c r="B584" s="9"/>
       <c r="C584" s="10"/>
       <c r="D584" s="10"/>
@@ -8056,9 +7784,7 @@
       <c r="G584" s="10"/>
     </row>
     <row r="585" ht="20.05" customHeight="1">
-      <c r="A585" t="s" s="8">
-        <v>51</v>
-      </c>
+      <c r="A585" s="8"/>
       <c r="B585" s="9"/>
       <c r="C585" s="10"/>
       <c r="D585" s="10"/>
@@ -8067,9 +7793,7 @@
       <c r="G585" s="10"/>
     </row>
     <row r="586" ht="20.05" customHeight="1">
-      <c r="A586" t="s" s="8">
-        <v>65</v>
-      </c>
+      <c r="A586" s="8"/>
       <c r="B586" s="9"/>
       <c r="C586" s="10"/>
       <c r="D586" s="10"/>
@@ -8078,9 +7802,7 @@
       <c r="G586" s="10"/>
     </row>
     <row r="587" ht="20.05" customHeight="1">
-      <c r="A587" t="s" s="8">
-        <v>89</v>
-      </c>
+      <c r="A587" s="8"/>
       <c r="B587" s="9"/>
       <c r="C587" s="10"/>
       <c r="D587" s="10"/>
@@ -8089,9 +7811,7 @@
       <c r="G587" s="10"/>
     </row>
     <row r="588" ht="20.05" customHeight="1">
-      <c r="A588" t="s" s="8">
-        <v>88</v>
-      </c>
+      <c r="A588" s="8"/>
       <c r="B588" s="9"/>
       <c r="C588" s="10"/>
       <c r="D588" s="10"/>
@@ -8100,9 +7820,7 @@
       <c r="G588" s="10"/>
     </row>
     <row r="589" ht="20.05" customHeight="1">
-      <c r="A589" t="s" s="8">
-        <v>24</v>
-      </c>
+      <c r="A589" s="8"/>
       <c r="B589" s="9"/>
       <c r="C589" s="10"/>
       <c r="D589" s="10"/>
@@ -8111,9 +7829,7 @@
       <c r="G589" s="10"/>
     </row>
     <row r="590" ht="20.05" customHeight="1">
-      <c r="A590" t="s" s="8">
-        <v>38</v>
-      </c>
+      <c r="A590" s="8"/>
       <c r="B590" s="9"/>
       <c r="C590" s="10"/>
       <c r="D590" s="10"/>
@@ -8122,9 +7838,7 @@
       <c r="G590" s="10"/>
     </row>
     <row r="591" ht="20.05" customHeight="1">
-      <c r="A591" t="s" s="8">
-        <v>61</v>
-      </c>
+      <c r="A591" s="8"/>
       <c r="B591" s="9"/>
       <c r="C591" s="10"/>
       <c r="D591" s="10"/>
@@ -8133,9 +7847,7 @@
       <c r="G591" s="10"/>
     </row>
     <row r="592" ht="20.05" customHeight="1">
-      <c r="A592" t="s" s="8">
-        <v>64</v>
-      </c>
+      <c r="A592" s="8"/>
       <c r="B592" s="9"/>
       <c r="C592" s="10"/>
       <c r="D592" s="10"/>
@@ -8144,9 +7856,7 @@
       <c r="G592" s="10"/>
     </row>
     <row r="593" ht="20.05" customHeight="1">
-      <c r="A593" t="s" s="8">
-        <v>90</v>
-      </c>
+      <c r="A593" s="8"/>
       <c r="B593" s="9"/>
       <c r="C593" s="10"/>
       <c r="D593" s="10"/>
@@ -8155,9 +7865,7 @@
       <c r="G593" s="10"/>
     </row>
     <row r="594" ht="20.05" customHeight="1">
-      <c r="A594" t="s" s="8">
-        <v>61</v>
-      </c>
+      <c r="A594" s="8"/>
       <c r="B594" s="9"/>
       <c r="C594" s="10"/>
       <c r="D594" s="10"/>
@@ -8166,9 +7874,7 @@
       <c r="G594" s="10"/>
     </row>
     <row r="595" ht="20.05" customHeight="1">
-      <c r="A595" t="s" s="8">
-        <v>60</v>
-      </c>
+      <c r="A595" s="8"/>
       <c r="B595" s="9"/>
       <c r="C595" s="10"/>
       <c r="D595" s="10"/>
@@ -8177,9 +7883,7 @@
       <c r="G595" s="10"/>
     </row>
     <row r="596" ht="20.05" customHeight="1">
-      <c r="A596" t="s" s="8">
-        <v>60</v>
-      </c>
+      <c r="A596" s="8"/>
       <c r="B596" s="9"/>
       <c r="C596" s="10"/>
       <c r="D596" s="10"/>
@@ -8188,9 +7892,7 @@
       <c r="G596" s="10"/>
     </row>
     <row r="597" ht="20.05" customHeight="1">
-      <c r="A597" t="s" s="8">
-        <v>60</v>
-      </c>
+      <c r="A597" s="8"/>
       <c r="B597" s="9"/>
       <c r="C597" s="10"/>
       <c r="D597" s="10"/>
@@ -8199,9 +7901,7 @@
       <c r="G597" s="10"/>
     </row>
     <row r="598" ht="20.05" customHeight="1">
-      <c r="A598" t="s" s="8">
-        <v>60</v>
-      </c>
+      <c r="A598" s="8"/>
       <c r="B598" s="9"/>
       <c r="C598" s="10"/>
       <c r="D598" s="10"/>
@@ -8210,9 +7910,7 @@
       <c r="G598" s="10"/>
     </row>
     <row r="599" ht="20.05" customHeight="1">
-      <c r="A599" t="s" s="8">
-        <v>60</v>
-      </c>
+      <c r="A599" s="8"/>
       <c r="B599" s="9"/>
       <c r="C599" s="10"/>
       <c r="D599" s="10"/>
@@ -8221,9 +7919,7 @@
       <c r="G599" s="10"/>
     </row>
     <row r="600" ht="20.05" customHeight="1">
-      <c r="A600" t="s" s="8">
-        <v>60</v>
-      </c>
+      <c r="A600" s="8"/>
       <c r="B600" s="9"/>
       <c r="C600" s="10"/>
       <c r="D600" s="10"/>
@@ -8232,9 +7928,7 @@
       <c r="G600" s="10"/>
     </row>
     <row r="601" ht="20.05" customHeight="1">
-      <c r="A601" t="s" s="8">
-        <v>60</v>
-      </c>
+      <c r="A601" s="8"/>
       <c r="B601" s="9"/>
       <c r="C601" s="10"/>
       <c r="D601" s="10"/>
@@ -8243,9 +7937,7 @@
       <c r="G601" s="10"/>
     </row>
     <row r="602" ht="20.05" customHeight="1">
-      <c r="A602" t="s" s="8">
-        <v>60</v>
-      </c>
+      <c r="A602" s="8"/>
       <c r="B602" s="9"/>
       <c r="C602" s="10"/>
       <c r="D602" s="10"/>
@@ -8254,9 +7946,7 @@
       <c r="G602" s="10"/>
     </row>
     <row r="603" ht="20.05" customHeight="1">
-      <c r="A603" t="s" s="8">
-        <v>60</v>
-      </c>
+      <c r="A603" s="8"/>
       <c r="B603" s="9"/>
       <c r="C603" s="10"/>
       <c r="D603" s="10"/>
@@ -8265,9 +7955,7 @@
       <c r="G603" s="10"/>
     </row>
     <row r="604" ht="20.05" customHeight="1">
-      <c r="A604" t="s" s="8">
-        <v>91</v>
-      </c>
+      <c r="A604" s="8"/>
       <c r="B604" s="9"/>
       <c r="C604" s="10"/>
       <c r="D604" s="10"/>
@@ -8276,9 +7964,7 @@
       <c r="G604" s="10"/>
     </row>
     <row r="605" ht="20.05" customHeight="1">
-      <c r="A605" t="s" s="8">
-        <v>65</v>
-      </c>
+      <c r="A605" s="8"/>
       <c r="B605" s="9"/>
       <c r="C605" s="10"/>
       <c r="D605" s="10"/>
@@ -8287,9 +7973,7 @@
       <c r="G605" s="10"/>
     </row>
     <row r="606" ht="20.05" customHeight="1">
-      <c r="A606" t="s" s="8">
-        <v>65</v>
-      </c>
+      <c r="A606" s="8"/>
       <c r="B606" s="9"/>
       <c r="C606" s="10"/>
       <c r="D606" s="10"/>
@@ -8298,9 +7982,7 @@
       <c r="G606" s="10"/>
     </row>
     <row r="607" ht="20.05" customHeight="1">
-      <c r="A607" t="s" s="8">
-        <v>65</v>
-      </c>
+      <c r="A607" s="8"/>
       <c r="B607" s="9"/>
       <c r="C607" s="10"/>
       <c r="D607" s="10"/>
@@ -8309,9 +7991,7 @@
       <c r="G607" s="10"/>
     </row>
     <row r="608" ht="20.05" customHeight="1">
-      <c r="A608" t="s" s="8">
-        <v>92</v>
-      </c>
+      <c r="A608" s="8"/>
       <c r="B608" s="9"/>
       <c r="C608" s="10"/>
       <c r="D608" s="10"/>
@@ -8320,9 +8000,7 @@
       <c r="G608" s="10"/>
     </row>
     <row r="609" ht="20.05" customHeight="1">
-      <c r="A609" t="s" s="8">
-        <v>74</v>
-      </c>
+      <c r="A609" s="8"/>
       <c r="B609" s="9"/>
       <c r="C609" s="10"/>
       <c r="D609" s="10"/>
@@ -8331,9 +8009,7 @@
       <c r="G609" s="10"/>
     </row>
     <row r="610" ht="20.05" customHeight="1">
-      <c r="A610" t="s" s="8">
-        <v>60</v>
-      </c>
+      <c r="A610" s="8"/>
       <c r="B610" s="9"/>
       <c r="C610" s="10"/>
       <c r="D610" s="10"/>
@@ -8342,9 +8018,7 @@
       <c r="G610" s="10"/>
     </row>
     <row r="611" ht="20.05" customHeight="1">
-      <c r="A611" t="s" s="8">
-        <v>80</v>
-      </c>
+      <c r="A611" s="8"/>
       <c r="B611" s="9"/>
       <c r="C611" s="10"/>
       <c r="D611" s="10"/>
@@ -8353,9 +8027,7 @@
       <c r="G611" s="10"/>
     </row>
     <row r="612" ht="20.05" customHeight="1">
-      <c r="A612" t="s" s="8">
-        <v>93</v>
-      </c>
+      <c r="A612" s="8"/>
       <c r="B612" s="9"/>
       <c r="C612" s="10"/>
       <c r="D612" s="10"/>
@@ -8364,9 +8036,7 @@
       <c r="G612" s="10"/>
     </row>
     <row r="613" ht="20.05" customHeight="1">
-      <c r="A613" t="s" s="8">
-        <v>24</v>
-      </c>
+      <c r="A613" s="8"/>
       <c r="B613" s="9"/>
       <c r="C613" s="10"/>
       <c r="D613" s="10"/>
@@ -8375,9 +8045,7 @@
       <c r="G613" s="10"/>
     </row>
     <row r="614" ht="20.05" customHeight="1">
-      <c r="A614" t="s" s="8">
-        <v>51</v>
-      </c>
+      <c r="A614" s="8"/>
       <c r="B614" s="9"/>
       <c r="C614" s="10"/>
       <c r="D614" s="10"/>
@@ -8386,9 +8054,7 @@
       <c r="G614" s="10"/>
     </row>
     <row r="615" ht="20.05" customHeight="1">
-      <c r="A615" t="s" s="8">
-        <v>51</v>
-      </c>
+      <c r="A615" s="8"/>
       <c r="B615" s="9"/>
       <c r="C615" s="10"/>
       <c r="D615" s="10"/>
@@ -8397,9 +8063,7 @@
       <c r="G615" s="10"/>
     </row>
     <row r="616" ht="20.05" customHeight="1">
-      <c r="A616" t="s" s="8">
-        <v>24</v>
-      </c>
+      <c r="A616" s="8"/>
       <c r="B616" s="9"/>
       <c r="C616" s="10"/>
       <c r="D616" s="10"/>
@@ -8408,9 +8072,7 @@
       <c r="G616" s="10"/>
     </row>
     <row r="617" ht="20.05" customHeight="1">
-      <c r="A617" t="s" s="8">
-        <v>94</v>
-      </c>
+      <c r="A617" s="8"/>
       <c r="B617" s="9"/>
       <c r="C617" s="10"/>
       <c r="D617" s="10"/>
@@ -8419,9 +8081,7 @@
       <c r="G617" s="10"/>
     </row>
     <row r="618" ht="20.05" customHeight="1">
-      <c r="A618" t="s" s="8">
-        <v>89</v>
-      </c>
+      <c r="A618" s="8"/>
       <c r="B618" s="9"/>
       <c r="C618" s="10"/>
       <c r="D618" s="10"/>
@@ -8430,9 +8090,7 @@
       <c r="G618" s="10"/>
     </row>
     <row r="619" ht="20.05" customHeight="1">
-      <c r="A619" t="s" s="8">
-        <v>65</v>
-      </c>
+      <c r="A619" s="8"/>
       <c r="B619" s="9"/>
       <c r="C619" s="10"/>
       <c r="D619" s="10"/>
@@ -8441,9 +8099,7 @@
       <c r="G619" s="10"/>
     </row>
     <row r="620" ht="20.05" customHeight="1">
-      <c r="A620" t="s" s="8">
-        <v>95</v>
-      </c>
+      <c r="A620" s="8"/>
       <c r="B620" s="9"/>
       <c r="C620" s="10"/>
       <c r="D620" s="10"/>
@@ -8452,9 +8108,7 @@
       <c r="G620" s="10"/>
     </row>
     <row r="621" ht="20.05" customHeight="1">
-      <c r="A621" t="s" s="8">
-        <v>87</v>
-      </c>
+      <c r="A621" s="8"/>
       <c r="B621" s="9"/>
       <c r="C621" s="10"/>
       <c r="D621" s="10"/>
@@ -8463,9 +8117,7 @@
       <c r="G621" s="10"/>
     </row>
     <row r="622" ht="20.05" customHeight="1">
-      <c r="A622" t="s" s="8">
-        <v>96</v>
-      </c>
+      <c r="A622" s="8"/>
       <c r="B622" s="9"/>
       <c r="C622" s="10"/>
       <c r="D622" s="10"/>
@@ -8474,9 +8126,7 @@
       <c r="G622" s="10"/>
     </row>
     <row r="623" ht="20.05" customHeight="1">
-      <c r="A623" t="s" s="8">
-        <v>97</v>
-      </c>
+      <c r="A623" s="8"/>
       <c r="B623" s="9"/>
       <c r="C623" s="10"/>
       <c r="D623" s="10"/>
@@ -8485,9 +8135,7 @@
       <c r="G623" s="10"/>
     </row>
     <row r="624" ht="20.05" customHeight="1">
-      <c r="A624" t="s" s="8">
-        <v>98</v>
-      </c>
+      <c r="A624" s="8"/>
       <c r="B624" s="9"/>
       <c r="C624" s="10"/>
       <c r="D624" s="10"/>
@@ -8496,9 +8144,7 @@
       <c r="G624" s="10"/>
     </row>
     <row r="625" ht="20.05" customHeight="1">
-      <c r="A625" t="s" s="8">
-        <v>98</v>
-      </c>
+      <c r="A625" s="8"/>
       <c r="B625" s="9"/>
       <c r="C625" s="10"/>
       <c r="D625" s="10"/>
@@ -8507,9 +8153,7 @@
       <c r="G625" s="10"/>
     </row>
     <row r="626" ht="20.05" customHeight="1">
-      <c r="A626" t="s" s="8">
-        <v>98</v>
-      </c>
+      <c r="A626" s="8"/>
       <c r="B626" s="9"/>
       <c r="C626" s="10"/>
       <c r="D626" s="10"/>
@@ -8518,9 +8162,7 @@
       <c r="G626" s="10"/>
     </row>
     <row r="627" ht="20.05" customHeight="1">
-      <c r="A627" t="s" s="8">
-        <v>99</v>
-      </c>
+      <c r="A627" s="8"/>
       <c r="B627" s="9"/>
       <c r="C627" s="10"/>
       <c r="D627" s="10"/>
@@ -8529,9 +8171,7 @@
       <c r="G627" s="10"/>
     </row>
     <row r="628" ht="20.05" customHeight="1">
-      <c r="A628" t="s" s="8">
-        <v>99</v>
-      </c>
+      <c r="A628" s="8"/>
       <c r="B628" s="9"/>
       <c r="C628" s="10"/>
       <c r="D628" s="10"/>
@@ -8540,9 +8180,7 @@
       <c r="G628" s="10"/>
     </row>
     <row r="629" ht="20.05" customHeight="1">
-      <c r="A629" t="s" s="8">
-        <v>89</v>
-      </c>
+      <c r="A629" s="8"/>
       <c r="B629" s="9"/>
       <c r="C629" s="10"/>
       <c r="D629" s="10"/>
@@ -8551,9 +8189,7 @@
       <c r="G629" s="10"/>
     </row>
     <row r="630" ht="20.05" customHeight="1">
-      <c r="A630" t="s" s="8">
-        <v>100</v>
-      </c>
+      <c r="A630" s="8"/>
       <c r="B630" s="9"/>
       <c r="C630" s="10"/>
       <c r="D630" s="10"/>
@@ -8562,9 +8198,7 @@
       <c r="G630" s="10"/>
     </row>
     <row r="631" ht="20.05" customHeight="1">
-      <c r="A631" t="s" s="8">
-        <v>80</v>
-      </c>
+      <c r="A631" s="8"/>
       <c r="B631" s="9"/>
       <c r="C631" s="10"/>
       <c r="D631" s="10"/>
@@ -8573,9 +8207,7 @@
       <c r="G631" s="10"/>
     </row>
     <row r="632" ht="20.05" customHeight="1">
-      <c r="A632" t="s" s="8">
-        <v>101</v>
-      </c>
+      <c r="A632" s="8"/>
       <c r="B632" s="9"/>
       <c r="C632" s="10"/>
       <c r="D632" s="10"/>
@@ -8584,9 +8216,7 @@
       <c r="G632" s="10"/>
     </row>
     <row r="633" ht="20.05" customHeight="1">
-      <c r="A633" t="s" s="8">
-        <v>102</v>
-      </c>
+      <c r="A633" s="8"/>
       <c r="B633" s="9"/>
       <c r="C633" s="10"/>
       <c r="D633" s="10"/>
@@ -8595,9 +8225,7 @@
       <c r="G633" s="10"/>
     </row>
     <row r="634" ht="20.05" customHeight="1">
-      <c r="A634" t="s" s="8">
-        <v>1</v>
-      </c>
+      <c r="A634" s="8"/>
       <c r="B634" s="9"/>
       <c r="C634" s="10"/>
       <c r="D634" s="10"/>
@@ -8606,9 +8234,7 @@
       <c r="G634" s="10"/>
     </row>
     <row r="635" ht="20.05" customHeight="1">
-      <c r="A635" t="s" s="8">
-        <v>1</v>
-      </c>
+      <c r="A635" s="8"/>
       <c r="B635" s="9"/>
       <c r="C635" s="10"/>
       <c r="D635" s="10"/>
